--- a/exama-software.xlsx
+++ b/exama-software.xlsx
@@ -98,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2174" uniqueCount="1120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2174" uniqueCount="1121">
   <si>
     <t>Software</t>
   </si>
@@ -1257,6 +1257,9 @@
   </si>
   <si>
     <t>pierre.ledac@cea.fr</t>
+  </si>
+  <si>
+    <t>CPU, GPU, HYBRID</t>
   </si>
   <si>
     <t>Possibilité de benchs CPU-only, GPU-only et vrai CPU, GPU</t>
@@ -6591,6 +6594,7 @@
         <m/>
         <s v="INDIRECT"/>
         <s v="GPU"/>
+        <s v="CPU, GPU, HYBRID"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Comments" numFmtId="0">
@@ -7365,6 +7369,7 @@
         <m/>
         <s v="INDIRECT"/>
         <s v="GPU"/>
+        <s v="CPU, GPU, HYBRID"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Comments" numFmtId="0">
@@ -7847,6 +7852,7 @@
         <item h="1" x="3"/>
         <item x="2"/>
         <item h="1" x="0"/>
+        <item h="1" x="6"/>
         <item sd="0" x="5"/>
         <item h="1" x="4"/>
         <item h="1" x="1"/>
@@ -8181,6 +8187,7 @@
         <item x="3"/>
         <item x="4"/>
         <item x="5"/>
+        <item x="6"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -8703,6 +8710,7 @@
         <item x="3"/>
         <item x="4"/>
         <item x="5"/>
+        <item x="6"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -9225,6 +9233,7 @@
         <item x="3"/>
         <item x="4"/>
         <item x="5"/>
+        <item x="6"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -9747,6 +9756,7 @@
         <item x="3"/>
         <item x="4"/>
         <item x="5"/>
+        <item x="6"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -10269,6 +10279,7 @@
         <item x="3"/>
         <item x="4"/>
         <item x="5"/>
+        <item x="6"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -10791,6 +10802,7 @@
         <item x="3"/>
         <item x="4"/>
         <item x="5"/>
+        <item x="6"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -12796,6 +12808,7 @@
         <item x="3"/>
         <item x="4"/>
         <item x="5"/>
+        <item x="6"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -14802,6 +14815,7 @@
         <item x="3"/>
         <item x="4"/>
         <item x="5"/>
+        <item x="6"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -19063,25 +19077,25 @@
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="5" t="s">
-        <v>35</v>
+        <v>314</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H42" s="7" t="s">
         <v>199</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="J42" s="4" t="s">
         <v>67</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M42" s="4" t="s">
         <v>42</v>
@@ -19141,7 +19155,7 @@
     </row>
     <row r="43">
       <c r="A43" s="4" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>33</v>
@@ -19150,7 +19164,7 @@
         <v>33</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="5" t="s">
@@ -19158,7 +19172,7 @@
       </c>
       <c r="G43" s="4"/>
       <c r="H43" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I43" s="4" t="s">
         <v>52</v>
@@ -19167,14 +19181,14 @@
         <v>227</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M43" s="10"/>
       <c r="N43" s="4" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="O43" s="4"/>
       <c r="P43" s="10"/>
@@ -19183,7 +19197,7 @@
         <v>0</v>
       </c>
       <c r="S43" s="4" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="T43" s="4" t="b">
         <v>1</v>
@@ -19197,7 +19211,7 @@
         <v>0</v>
       </c>
       <c r="Y43" s="4" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Z43" s="34" t="b">
         <v>1</v>
@@ -19232,10 +19246,10 @@
     </row>
     <row r="44">
       <c r="A44" s="4" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C44" s="9"/>
       <c r="D44" s="5"/>
@@ -19243,10 +19257,10 @@
       <c r="F44" s="5"/>
       <c r="G44" s="4"/>
       <c r="H44" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="J44" s="4" t="s">
         <v>261</v>
@@ -19309,7 +19323,7 @@
     </row>
     <row r="45">
       <c r="A45" s="4" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>236</v>
@@ -19318,7 +19332,7 @@
         <v>237</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E45" s="12"/>
       <c r="F45" s="12" t="s">
@@ -19326,7 +19340,7 @@
       </c>
       <c r="G45" s="13"/>
       <c r="H45" s="14" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="I45" s="4" t="s">
         <v>75</v>
@@ -19361,7 +19375,7 @@
         <v>0</v>
       </c>
       <c r="Y45" s="4" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Z45" s="4" t="b">
         <v>1</v>
@@ -19509,7 +19523,7 @@
       <c r="B1" s="233"/>
       <c r="C1" s="233"/>
       <c r="D1" s="234" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="E1" s="235"/>
       <c r="F1" s="235"/>
@@ -19520,25 +19534,25 @@
       <c r="B2" s="233"/>
       <c r="C2" s="233"/>
       <c r="D2" s="90" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="E2" s="90" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="F2" s="90" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="G2" s="90" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="232"/>
       <c r="B3" s="236" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="C3" s="90" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="D3" s="237"/>
       <c r="E3" s="237"/>
@@ -19549,7 +19563,7 @@
       <c r="A4" s="232"/>
       <c r="B4" s="238"/>
       <c r="C4" s="90" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="D4" s="237"/>
       <c r="E4" s="237"/>
@@ -19560,7 +19574,7 @@
       <c r="A5" s="232"/>
       <c r="B5" s="238"/>
       <c r="C5" s="90" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="D5" s="237"/>
       <c r="E5" s="237"/>
@@ -19571,7 +19585,7 @@
       <c r="A6" s="232"/>
       <c r="B6" s="239"/>
       <c r="C6" s="90" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="D6" s="237"/>
       <c r="E6" s="237"/>
@@ -19615,39 +19629,39 @@
         <v>0</v>
       </c>
       <c r="B11" s="241" t="s">
+        <v>838</v>
+      </c>
+      <c r="C11" s="241" t="s">
+        <v>832</v>
+      </c>
+      <c r="D11" s="241" t="s">
         <v>837</v>
       </c>
-      <c r="C11" s="241" t="s">
-        <v>831</v>
-      </c>
-      <c r="D11" s="241" t="s">
-        <v>836</v>
-      </c>
       <c r="E11" s="242" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="F11" s="243" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="244" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="B12" s="244" t="s">
+        <v>834</v>
+      </c>
+      <c r="C12" s="244" t="s">
+        <v>834</v>
+      </c>
+      <c r="D12" s="244" t="s">
         <v>833</v>
       </c>
-      <c r="C12" s="244" t="s">
-        <v>833</v>
-      </c>
-      <c r="D12" s="244" t="s">
-        <v>832</v>
-      </c>
       <c r="E12" s="245" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="F12" s="246" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="13">
@@ -19655,219 +19669,219 @@
         <v>241</v>
       </c>
       <c r="B13" s="244" t="s">
+        <v>834</v>
+      </c>
+      <c r="C13" s="244" t="s">
+        <v>834</v>
+      </c>
+      <c r="D13" s="244" t="s">
         <v>833</v>
       </c>
-      <c r="C13" s="244" t="s">
-        <v>833</v>
-      </c>
-      <c r="D13" s="244" t="s">
-        <v>832</v>
-      </c>
       <c r="E13" s="245" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="F13" s="246" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="244" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B14" s="244" t="s">
+        <v>835</v>
+      </c>
+      <c r="C14" s="244" t="s">
         <v>834</v>
       </c>
-      <c r="C14" s="244" t="s">
+      <c r="D14" s="244" t="s">
         <v>833</v>
       </c>
-      <c r="D14" s="244" t="s">
-        <v>832</v>
-      </c>
       <c r="E14" s="245" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="F14" s="246" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="244" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B15" s="244" t="s">
+        <v>834</v>
+      </c>
+      <c r="C15" s="244" t="s">
+        <v>834</v>
+      </c>
+      <c r="D15" s="244" t="s">
         <v>833</v>
       </c>
-      <c r="C15" s="244" t="s">
-        <v>833</v>
-      </c>
-      <c r="D15" s="244" t="s">
-        <v>832</v>
-      </c>
       <c r="E15" s="245" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="F15" s="246" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="244" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="B16" s="244" t="s">
+        <v>834</v>
+      </c>
+      <c r="C16" s="244" t="s">
+        <v>834</v>
+      </c>
+      <c r="D16" s="244" t="s">
         <v>833</v>
       </c>
-      <c r="C16" s="244" t="s">
-        <v>833</v>
-      </c>
-      <c r="D16" s="244" t="s">
-        <v>832</v>
-      </c>
       <c r="E16" s="245" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="F16" s="246" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="244" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="B17" s="244" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="C17" s="244" t="s">
+        <v>835</v>
+      </c>
+      <c r="D17" s="244" t="s">
         <v>834</v>
       </c>
-      <c r="D17" s="244" t="s">
-        <v>833</v>
-      </c>
       <c r="E17" s="245" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="F17" s="246" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="244" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B18" s="244" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="C18" s="244" t="s">
+        <v>835</v>
+      </c>
+      <c r="D18" s="244" t="s">
         <v>834</v>
       </c>
-      <c r="D18" s="244" t="s">
-        <v>833</v>
-      </c>
       <c r="E18" s="245" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="F18" s="246" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="244" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="B19" s="244" t="s">
+        <v>836</v>
+      </c>
+      <c r="C19" s="244" t="s">
         <v>835</v>
       </c>
-      <c r="C19" s="244" t="s">
+      <c r="D19" s="244" t="s">
         <v>834</v>
       </c>
-      <c r="D19" s="244" t="s">
-        <v>833</v>
-      </c>
       <c r="E19" s="245" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="F19" s="246" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="244" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="B20" s="244" t="s">
+        <v>836</v>
+      </c>
+      <c r="C20" s="244" t="s">
+        <v>836</v>
+      </c>
+      <c r="D20" s="244" t="s">
         <v>835</v>
       </c>
-      <c r="C20" s="244" t="s">
-        <v>835</v>
-      </c>
-      <c r="D20" s="244" t="s">
-        <v>834</v>
-      </c>
       <c r="E20" s="245" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="F20" s="246" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="244" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="B21" s="244" t="s">
+        <v>836</v>
+      </c>
+      <c r="C21" s="244" t="s">
+        <v>836</v>
+      </c>
+      <c r="D21" s="244" t="s">
         <v>835</v>
       </c>
-      <c r="C21" s="244" t="s">
-        <v>835</v>
-      </c>
-      <c r="D21" s="244" t="s">
-        <v>834</v>
-      </c>
       <c r="E21" s="245" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="F21" s="246" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="244" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="B22" s="244" t="s">
+        <v>836</v>
+      </c>
+      <c r="C22" s="244" t="s">
         <v>835</v>
       </c>
-      <c r="C22" s="244" t="s">
-        <v>834</v>
-      </c>
       <c r="D22" s="244" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="E22" s="245" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="F22" s="246" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="244" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="B23" s="244" t="s">
+        <v>836</v>
+      </c>
+      <c r="C23" s="244" t="s">
+        <v>836</v>
+      </c>
+      <c r="D23" s="244" t="s">
         <v>835</v>
       </c>
-      <c r="C23" s="244" t="s">
-        <v>835</v>
-      </c>
-      <c r="D23" s="244" t="s">
-        <v>834</v>
-      </c>
       <c r="E23" s="245" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="F23" s="246" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="24">
@@ -22874,169 +22888,169 @@
         <v>0</v>
       </c>
       <c r="B1" s="242" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="C1" s="241" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="D1" s="241" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="E1" s="243" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="244" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B2" s="245" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="C2" s="247" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="D2" s="244" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="E2" s="248" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="244" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B3" s="245" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="C3" s="247" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="D3" s="244" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="E3" s="248" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="244" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B4" s="245" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="C4" s="247" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="D4" s="244" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="E4" s="248" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="244" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B5" s="245" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="C5" s="247" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="D5" s="244" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="E5" s="248" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="244" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="B6" s="245" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="C6" s="247" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="D6" s="244" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="E6" s="248" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="244" t="s">
+        <v>898</v>
+      </c>
+      <c r="B7" s="245" t="s">
+        <v>899</v>
+      </c>
+      <c r="C7" s="247" t="s">
+        <v>900</v>
+      </c>
+      <c r="D7" s="244" t="s">
         <v>897</v>
       </c>
-      <c r="B7" s="245" t="s">
-        <v>898</v>
-      </c>
-      <c r="C7" s="247" t="s">
-        <v>899</v>
-      </c>
-      <c r="D7" s="244" t="s">
-        <v>896</v>
-      </c>
       <c r="E7" s="248" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="244" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="B8" s="245" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="C8" s="247" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="D8" s="244" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="E8" s="248" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="244" t="s">
+        <v>905</v>
+      </c>
+      <c r="B9" s="245" t="s">
+        <v>906</v>
+      </c>
+      <c r="C9" s="247" t="s">
+        <v>907</v>
+      </c>
+      <c r="D9" s="244" t="s">
         <v>904</v>
       </c>
-      <c r="B9" s="245" t="s">
-        <v>905</v>
-      </c>
-      <c r="C9" s="247" t="s">
-        <v>906</v>
-      </c>
-      <c r="D9" s="244" t="s">
-        <v>903</v>
-      </c>
       <c r="E9" s="248" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="244" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="B10" s="245" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="C10" s="247" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="D10" s="244" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="E10" s="248" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="11">
@@ -26043,30 +26057,30 @@
     </row>
     <row r="2">
       <c r="A2" s="244" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="B2" s="244" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="C2" s="245" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="D2" s="246" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="244" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B3" s="244" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="C3" s="245" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="D3" s="246" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
     </row>
     <row r="4">
@@ -26074,136 +26088,136 @@
         <v>208</v>
       </c>
       <c r="B4" s="244" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="C4" s="245" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="D4" s="246" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="244" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="B5" s="244" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="C5" s="245" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="D5" s="246" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="244" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B6" s="244" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="C6" s="245" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="D6" s="246" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="244" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B7" s="244" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="C7" s="245" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="D7" s="246" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="244" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="B8" s="244" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="C8" s="245" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="D8" s="246" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="244" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="B9" s="244" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="C9" s="245" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="D9" s="246" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="244" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="B10" s="244" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="C10" s="245" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="D10" s="246" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="244" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="B11" s="244" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="C11" s="245" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="D11" s="246" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="244" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="B12" s="244" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="C12" s="245" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="D12" s="246" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="244" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="B13" s="244" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="C13" s="245" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
     </row>
     <row r="14">
@@ -29212,199 +29226,199 @@
         <v>0</v>
       </c>
       <c r="B2" s="242" t="s">
+        <v>839</v>
+      </c>
+      <c r="C2" s="241" t="s">
+        <v>875</v>
+      </c>
+      <c r="D2" s="241" t="s">
         <v>838</v>
       </c>
-      <c r="C2" s="241" t="s">
-        <v>874</v>
-      </c>
-      <c r="D2" s="241" t="s">
+      <c r="E2" s="241" t="s">
+        <v>832</v>
+      </c>
+      <c r="F2" s="243" t="s">
         <v>837</v>
-      </c>
-      <c r="E2" s="241" t="s">
-        <v>831</v>
-      </c>
-      <c r="F2" s="243" t="s">
-        <v>836</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="244" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="B3" s="245" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="C3" s="247" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="D3" s="244" t="s">
+        <v>834</v>
+      </c>
+      <c r="E3" s="244" t="s">
         <v>833</v>
       </c>
-      <c r="E3" s="244" t="s">
-        <v>832</v>
-      </c>
       <c r="F3" s="248" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="244" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="B4" s="245" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="C4" s="247" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="D4" s="244" t="s">
+        <v>834</v>
+      </c>
+      <c r="E4" s="244" t="s">
         <v>833</v>
       </c>
-      <c r="E4" s="244" t="s">
-        <v>832</v>
-      </c>
       <c r="F4" s="248" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="244" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B5" s="245" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="C5" s="247" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="D5" s="244" t="s">
+        <v>834</v>
+      </c>
+      <c r="E5" s="244" t="s">
         <v>833</v>
       </c>
-      <c r="E5" s="244" t="s">
-        <v>832</v>
-      </c>
       <c r="F5" s="248" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="244" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="B6" s="245" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="C6" s="247" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="D6" s="244" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="E6" s="244" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="F6" s="248" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="244" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="B7" s="245" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C7" s="247" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="D7" s="244" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="E7" s="244" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="F7" s="248" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="244" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="B8" s="245" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="C8" s="247" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="D8" s="244" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="E8" s="244" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="F8" s="248" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="244" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="B9" s="245" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="C9" s="247" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="D9" s="244" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="E9" s="244" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="F9" s="248" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="244" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="B10" s="245" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="C10" s="247" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="D10" s="244" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="E10" s="244" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="F10" s="248" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="244" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="B11" s="245" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="C11" s="247" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="D11" s="244" t="s">
+        <v>835</v>
+      </c>
+      <c r="E11" s="244" t="s">
         <v>834</v>
       </c>
-      <c r="E11" s="244" t="s">
-        <v>833</v>
-      </c>
       <c r="F11" s="248" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="12">
@@ -29412,19 +29426,19 @@
         <v>87</v>
       </c>
       <c r="B12" s="245" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="C12" s="247" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="D12" s="244" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="E12" s="244" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="F12" s="248" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="13">
@@ -29432,19 +29446,19 @@
         <v>106</v>
       </c>
       <c r="B13" s="245" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="C13" s="247" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="D13" s="244" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="E13" s="244" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="F13" s="248" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="14">
@@ -29452,19 +29466,19 @@
         <v>232</v>
       </c>
       <c r="B14" s="245" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="C14" s="247" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="D14" s="244" t="s">
+        <v>836</v>
+      </c>
+      <c r="E14" s="244" t="s">
         <v>835</v>
       </c>
-      <c r="E14" s="244" t="s">
-        <v>834</v>
-      </c>
       <c r="F14" s="248" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="15">
@@ -29472,79 +29486,79 @@
         <v>67</v>
       </c>
       <c r="B15" s="245" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="C15" s="247" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="D15" s="244" t="s">
+        <v>836</v>
+      </c>
+      <c r="E15" s="244" t="s">
         <v>835</v>
       </c>
-      <c r="E15" s="244" t="s">
-        <v>834</v>
-      </c>
       <c r="F15" s="248" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="244" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="B16" s="245" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="C16" s="247" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="D16" s="244" t="s">
+        <v>836</v>
+      </c>
+      <c r="E16" s="244" t="s">
         <v>835</v>
       </c>
-      <c r="E16" s="244" t="s">
-        <v>834</v>
-      </c>
       <c r="F16" s="248" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="244" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="B17" s="245" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="C17" s="247" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="D17" s="244" t="s">
+        <v>836</v>
+      </c>
+      <c r="E17" s="244" t="s">
         <v>835</v>
       </c>
-      <c r="E17" s="244" t="s">
-        <v>834</v>
-      </c>
       <c r="F17" s="248" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="244" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="B18" s="245" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="C18" s="247" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="D18" s="244" t="s">
+        <v>836</v>
+      </c>
+      <c r="E18" s="244" t="s">
         <v>835</v>
       </c>
-      <c r="E18" s="244" t="s">
-        <v>834</v>
-      </c>
       <c r="F18" s="248" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="19">
@@ -29552,170 +29566,170 @@
         <v>261</v>
       </c>
       <c r="B19" s="245" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="C19" s="247" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="D19" s="244" t="s">
+        <v>836</v>
+      </c>
+      <c r="E19" s="244" t="s">
         <v>835</v>
       </c>
-      <c r="E19" s="244" t="s">
-        <v>834</v>
-      </c>
       <c r="F19" s="248" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="244" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="B20" s="245" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="C20" s="247" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="D20" s="244" t="s">
+        <v>836</v>
+      </c>
+      <c r="E20" s="244" t="s">
         <v>835</v>
       </c>
-      <c r="E20" s="244" t="s">
-        <v>834</v>
-      </c>
       <c r="F20" s="248" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="244" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="B21" s="245" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="C21" s="247" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="D21" s="244" t="s">
+        <v>836</v>
+      </c>
+      <c r="E21" s="244" t="s">
         <v>835</v>
       </c>
-      <c r="E21" s="244" t="s">
-        <v>834</v>
-      </c>
       <c r="F21" s="248" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="244" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="B22" s="245" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="C22" s="247" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="D22" s="244" t="s">
+        <v>836</v>
+      </c>
+      <c r="E22" s="244" t="s">
         <v>835</v>
       </c>
-      <c r="E22" s="244" t="s">
-        <v>834</v>
-      </c>
       <c r="F22" s="248" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="244" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="B23" s="245" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="C23" s="247" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="D23" s="244" t="s">
+        <v>836</v>
+      </c>
+      <c r="E23" s="244" t="s">
         <v>835</v>
       </c>
-      <c r="E23" s="244" t="s">
-        <v>834</v>
-      </c>
       <c r="F23" s="248" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="244" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="B24" s="245" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="C24" s="247" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="D24" s="244" t="s">
+        <v>836</v>
+      </c>
+      <c r="E24" s="244" t="s">
         <v>835</v>
       </c>
-      <c r="E24" s="244" t="s">
-        <v>834</v>
-      </c>
       <c r="F24" s="248" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="244" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="B25" s="245" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="C25" s="247" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="D25" s="244" t="s">
+        <v>836</v>
+      </c>
+      <c r="E25" s="244" t="s">
         <v>835</v>
       </c>
-      <c r="E25" s="244" t="s">
-        <v>834</v>
-      </c>
       <c r="F25" s="248" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="244" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="B26" s="245" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="C26" s="247" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="D26" s="244" t="s">
+        <v>836</v>
+      </c>
+      <c r="E26" s="244" t="s">
         <v>835</v>
       </c>
-      <c r="E26" s="244" t="s">
-        <v>834</v>
-      </c>
       <c r="F26" s="248" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="244" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="B27" s="245" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="C27" s="247" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="D27" s="251"/>
     </row>
@@ -32692,367 +32706,367 @@
         <v>0</v>
       </c>
       <c r="B2" s="242" t="s">
+        <v>839</v>
+      </c>
+      <c r="C2" s="241" t="s">
+        <v>875</v>
+      </c>
+      <c r="D2" s="241" t="s">
         <v>838</v>
       </c>
-      <c r="C2" s="241" t="s">
-        <v>874</v>
-      </c>
-      <c r="D2" s="241" t="s">
+      <c r="E2" s="241" t="s">
+        <v>832</v>
+      </c>
+      <c r="F2" s="243" t="s">
         <v>837</v>
-      </c>
-      <c r="E2" s="241" t="s">
-        <v>831</v>
-      </c>
-      <c r="F2" s="243" t="s">
-        <v>836</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="244" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="B3" s="245" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="C3" s="247" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="D3" s="244" t="s">
+        <v>834</v>
+      </c>
+      <c r="E3" s="244" t="s">
         <v>833</v>
       </c>
-      <c r="E3" s="244" t="s">
-        <v>832</v>
-      </c>
       <c r="F3" s="248" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="244" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="B4" s="245" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="C4" s="247" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="D4" s="244" t="s">
+        <v>835</v>
+      </c>
+      <c r="E4" s="244" t="s">
         <v>834</v>
       </c>
-      <c r="E4" s="244" t="s">
-        <v>833</v>
-      </c>
       <c r="F4" s="248" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="244" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="B5" s="245" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="C5" s="247" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D5" s="244" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="E5" s="244" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="F5" s="248" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="244" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="B6" s="245" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="C6" s="247" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="D6" s="244" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="E6" s="244" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="F6" s="248" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="244" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="B7" s="245" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="C7" s="247" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="D7" s="244" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="E7" s="244" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="F7" s="248" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="244" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="B8" s="245" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="C8" s="247" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="D8" s="244" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="E8" s="244" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="F8" s="248" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="244" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="B9" s="245" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="C9" s="247" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D9" s="244" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="E9" s="244" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="F9" s="248" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="244" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="B10" s="245" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="C10" s="247" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="D10" s="244" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="E10" s="244" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="F10" s="248" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="244" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="B11" s="245" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="C11" s="247" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="D11" s="244" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="E11" s="244" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="F11" s="248" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="244" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="B12" s="245" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="C12" s="247" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="D12" s="244" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="E12" s="244" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="F12" s="248" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="244" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="B13" s="245" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="C13" s="247" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="D13" s="244" t="s">
+        <v>835</v>
+      </c>
+      <c r="E13" s="244" t="s">
         <v>834</v>
       </c>
-      <c r="E13" s="244" t="s">
-        <v>833</v>
-      </c>
       <c r="F13" s="248" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="244" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="B14" s="245" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="C14" s="247" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="D14" s="244" t="s">
+        <v>835</v>
+      </c>
+      <c r="E14" s="244" t="s">
         <v>834</v>
       </c>
-      <c r="E14" s="244" t="s">
-        <v>833</v>
-      </c>
       <c r="F14" s="248" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="244" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="B15" s="245" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="C15" s="247" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="D15" s="244" t="s">
+        <v>835</v>
+      </c>
+      <c r="E15" s="244" t="s">
         <v>834</v>
       </c>
-      <c r="E15" s="244" t="s">
-        <v>833</v>
-      </c>
       <c r="F15" s="248" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="244" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="B16" s="245" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="C16" s="247" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="D16" s="244" t="s">
+        <v>836</v>
+      </c>
+      <c r="E16" s="244" t="s">
         <v>835</v>
       </c>
-      <c r="E16" s="244" t="s">
-        <v>834</v>
-      </c>
       <c r="F16" s="248" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="244" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="B17" s="245" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="C17" s="247" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="D17" s="244" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="E17" s="244" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="F17" s="248" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="244" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="B18" s="245" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="C18" s="247" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="D18" s="244" t="s">
+        <v>835</v>
+      </c>
+      <c r="E18" s="244" t="s">
         <v>834</v>
       </c>
-      <c r="E18" s="244" t="s">
-        <v>833</v>
-      </c>
       <c r="F18" s="248" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="244" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="B19" s="245" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="C19" s="247" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="D19" s="244" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="E19" s="244" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="F19" s="248" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="244" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="B20" s="245" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="C20" s="251"/>
       <c r="D20" s="251"/>
@@ -36041,87 +36055,87 @@
         <v>0</v>
       </c>
       <c r="B1" s="242" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="C1" s="243" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="244" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="B2" s="245" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="C2" s="246" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="244" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="B3" s="245" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="C3" s="246" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="244" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="B4" s="245" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="C4" s="246" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="244" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="B5" s="245" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="C5" s="246" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="244" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="B6" s="245" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="C6" s="246" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="244" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="B7" s="245" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="C7" s="246" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="244" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="B8" s="245" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="C8" s="246" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="9">
@@ -39132,131 +39146,131 @@
         <v>0</v>
       </c>
       <c r="B1" s="242" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="C1" s="243" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="245" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="B2" s="245" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="C2" s="246" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="245" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="B3" s="245" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="C3" s="246" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="245" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="B4" s="245" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="C4" s="246" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="245" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="B5" s="245" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="C5" s="246" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="245" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="B6" s="245" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="C6" s="246" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="245" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B7" s="245" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="C7" s="246" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="245" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="B8" s="245" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="C8" s="246" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="245" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="B9" s="245" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="C9" s="246" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="245" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="B10" s="245" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="C10" s="246" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="245" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="B11" s="245" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="C11" s="246" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="245" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="B12" s="245" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="C12" s="246" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="13">
@@ -46288,22 +46302,22 @@
         <v>22.0</v>
       </c>
       <c r="H1" s="20" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="I1" s="20">
         <v>6.0</v>
       </c>
       <c r="M1" s="20" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="N1" s="20">
         <v>26.0</v>
       </c>
       <c r="Q1" s="20" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="R1" s="20" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="S1" s="20">
         <v>9.0</v>
@@ -46317,7 +46331,7 @@
         <v>11.0</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E2" s="20">
         <v>1.0</v>
@@ -46329,16 +46343,16 @@
         <v>4.0</v>
       </c>
       <c r="M2" s="20" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="N2" s="20">
         <v>16.0</v>
       </c>
       <c r="Q2" s="20" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="R2" s="20" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="S2" s="20">
         <v>3.0</v>
@@ -46352,7 +46366,7 @@
         <v>8.0</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E3" s="20">
         <v>1.0</v>
@@ -46364,16 +46378,16 @@
         <v>9.0</v>
       </c>
       <c r="M3" s="20" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N3" s="20">
         <v>5.0</v>
       </c>
       <c r="Q3" s="20" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="R3" s="20" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="S3" s="20">
         <v>1.0</v>
@@ -46381,7 +46395,7 @@
     </row>
     <row r="4">
       <c r="A4" s="20" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B4" s="20">
         <v>5.0</v>
@@ -46393,22 +46407,22 @@
         <v>9.0</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="I4" s="20">
         <v>4.0</v>
       </c>
       <c r="M4" s="20" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="N4" s="20">
         <v>2.0</v>
       </c>
       <c r="Q4" s="20" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="R4" s="20" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="S4" s="20">
         <v>7.0</v>
@@ -46416,7 +46430,7 @@
     </row>
     <row r="5">
       <c r="A5" s="20" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B5" s="20">
         <v>1.0</v>
@@ -46428,13 +46442,13 @@
         <v>9.0</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="I5" s="20">
         <v>3.0</v>
       </c>
       <c r="M5" s="20" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N5" s="20">
         <v>2.0</v>
@@ -46443,7 +46457,7 @@
         <v>280</v>
       </c>
       <c r="R5" s="20" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="S5" s="20">
         <v>1.0</v>
@@ -46451,25 +46465,25 @@
     </row>
     <row r="6">
       <c r="A6" s="20" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B6" s="20">
         <v>1.0</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E6" s="20">
         <v>7.0</v>
       </c>
       <c r="H6" s="20" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="I6" s="20">
         <v>2.0</v>
       </c>
       <c r="M6" s="20" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N6" s="20">
         <v>6.0</v>
@@ -46478,7 +46492,7 @@
         <v>181</v>
       </c>
       <c r="R6" s="20" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="S6" s="20">
         <v>3.0</v>
@@ -46492,13 +46506,13 @@
         <v>3.0</v>
       </c>
       <c r="H7" s="20" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="I7" s="20">
         <v>1.0</v>
       </c>
       <c r="M7" s="20" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="N7" s="20">
         <v>1.0</v>
@@ -46515,28 +46529,28 @@
     </row>
     <row r="8">
       <c r="D8" s="20" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E8" s="20">
         <v>1.0</v>
       </c>
       <c r="H8" s="20" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="I8" s="20">
         <v>2.0</v>
       </c>
       <c r="M8" s="20" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N8" s="20">
         <v>1.0</v>
       </c>
       <c r="Q8" s="20" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="R8" s="20" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="S8" s="20">
         <v>1.0</v>
@@ -46544,28 +46558,28 @@
     </row>
     <row r="9">
       <c r="D9" s="20" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E9" s="20">
         <v>1.0</v>
       </c>
       <c r="H9" s="20" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="I9" s="20">
         <v>1.0</v>
       </c>
       <c r="M9" s="20" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="N9" s="20">
         <v>2.0</v>
       </c>
       <c r="Q9" s="20" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="R9" s="20" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="S9" s="20">
         <v>1.0</v>
@@ -46573,13 +46587,13 @@
     </row>
     <row r="10">
       <c r="H10" s="20" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="I10" s="20">
         <v>1.0</v>
       </c>
       <c r="M10" s="20" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N10" s="20">
         <v>16.0</v>
@@ -46596,22 +46610,22 @@
     </row>
     <row r="11">
       <c r="H11" s="20" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="I11" s="20">
         <v>1.0</v>
       </c>
       <c r="M11" s="20" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="N11" s="20">
         <v>5.0</v>
       </c>
       <c r="Q11" s="20" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="R11" s="20" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="S11" s="20">
         <v>1.0</v>
@@ -46625,7 +46639,7 @@
         <v>3.0</v>
       </c>
       <c r="M12" s="20" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="N12" s="20">
         <v>2.0</v>
@@ -46641,7 +46655,7 @@
     </row>
     <row r="14">
       <c r="H14" s="20" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="I14" s="20">
         <v>2.0</v>
@@ -46649,7 +46663,7 @@
     </row>
     <row r="46">
       <c r="O46" s="20" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="P46" s="20">
         <v>1.0</v>
@@ -46657,7 +46671,7 @@
     </row>
     <row r="47">
       <c r="O47" s="20" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="P47" s="20">
         <v>4.0</v>
@@ -46665,7 +46679,7 @@
     </row>
     <row r="48">
       <c r="O48" s="20" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="P48" s="20">
         <v>3.0</v>
@@ -46673,7 +46687,7 @@
     </row>
     <row r="49">
       <c r="O49" s="20" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="P49" s="20">
         <v>2.0</v>
@@ -46681,7 +46695,7 @@
     </row>
     <row r="50">
       <c r="O50" s="20" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="P50" s="20">
         <v>1.0</v>
@@ -46689,7 +46703,7 @@
     </row>
     <row r="51">
       <c r="O51" s="20" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="P51" s="20">
         <v>1.0</v>
@@ -46697,7 +46711,7 @@
     </row>
     <row r="52">
       <c r="O52" s="20" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="P52" s="20">
         <v>1.0</v>
@@ -46705,7 +46719,7 @@
     </row>
     <row r="53">
       <c r="O53" s="20" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="P53" s="20">
         <v>1.0</v>
@@ -46713,7 +46727,7 @@
     </row>
     <row r="54">
       <c r="O54" s="20" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="P54" s="20">
         <v>2.0</v>
@@ -46721,7 +46735,7 @@
     </row>
     <row r="55">
       <c r="O55" s="20" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="P55" s="20">
         <v>1.0</v>
@@ -46729,7 +46743,7 @@
     </row>
     <row r="56">
       <c r="O56" s="20" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="P56" s="20">
         <v>1.0</v>
@@ -46737,7 +46751,7 @@
     </row>
     <row r="57">
       <c r="O57" s="20" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="P57" s="20">
         <v>1.0</v>
@@ -46745,7 +46759,7 @@
     </row>
     <row r="58">
       <c r="O58" s="20" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="P58" s="20">
         <v>1.0</v>
@@ -46753,7 +46767,7 @@
     </row>
     <row r="59">
       <c r="O59" s="20" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="P59" s="20">
         <v>2.0</v>
@@ -46761,7 +46775,7 @@
     </row>
     <row r="60">
       <c r="O60" s="20" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="P60" s="20">
         <v>1.0</v>
@@ -46769,7 +46783,7 @@
     </row>
     <row r="61">
       <c r="O61" s="20" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="P61" s="20">
         <v>1.0</v>
@@ -46777,7 +46791,7 @@
     </row>
     <row r="62">
       <c r="O62" s="20" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="P62" s="20">
         <v>2.0</v>
@@ -46785,7 +46799,7 @@
     </row>
     <row r="63">
       <c r="O63" s="20" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="P63" s="20">
         <v>1.0</v>
@@ -46793,7 +46807,7 @@
     </row>
     <row r="64">
       <c r="O64" s="20" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="P64" s="20">
         <v>1.0</v>
@@ -46801,7 +46815,7 @@
     </row>
     <row r="65">
       <c r="O65" s="20" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="P65" s="20">
         <v>1.0</v>
@@ -46809,7 +46823,7 @@
     </row>
     <row r="66">
       <c r="O66" s="20" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="P66" s="20">
         <v>1.0</v>
@@ -46817,7 +46831,7 @@
     </row>
     <row r="67">
       <c r="O67" s="20" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="P67" s="20">
         <v>1.0</v>
@@ -46825,7 +46839,7 @@
     </row>
     <row r="68">
       <c r="O68" s="20" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="P68" s="20">
         <v>1.0</v>
@@ -46833,7 +46847,7 @@
     </row>
     <row r="69">
       <c r="O69" s="20" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="P69" s="20">
         <v>1.0</v>
@@ -46841,7 +46855,7 @@
     </row>
     <row r="70">
       <c r="O70" s="20" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="P70" s="20">
         <v>1.0</v>
@@ -46849,7 +46863,7 @@
     </row>
     <row r="71">
       <c r="O71" s="20" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P71" s="20">
         <v>1.0</v>
@@ -46857,7 +46871,7 @@
     </row>
     <row r="72">
       <c r="O72" s="20" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="P72" s="20">
         <v>6.0</v>
@@ -46865,7 +46879,7 @@
     </row>
     <row r="73">
       <c r="O73" s="20" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="P73" s="20">
         <v>5.0</v>
@@ -46873,7 +46887,7 @@
     </row>
     <row r="74">
       <c r="O74" s="20" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="P74" s="20">
         <v>5.0</v>
@@ -46881,7 +46895,7 @@
     </row>
     <row r="75">
       <c r="O75" s="20" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="P75" s="20">
         <v>5.0</v>
@@ -46918,13 +46932,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="40" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C1" s="41" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D1" s="41" t="s">
         <v>15</v>
@@ -46945,60 +46959,60 @@
         <v>13</v>
       </c>
       <c r="J1" s="41" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="K1" s="41" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L1" s="41" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M1" s="41" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="N1" s="41" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="O1" s="41" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="P1" s="41" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Q1" s="20" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="R1" s="20" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="S1" s="20" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="T1" s="20" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="U1" s="20" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="W1" s="20" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="X1" s="20" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="42" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B2" s="43" t="s">
         <v>160</v>
       </c>
       <c r="C2" s="43" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E2" s="43" t="s">
         <v>232</v>
@@ -47007,7 +47021,7 @@
         <v>106</v>
       </c>
       <c r="G2" s="43" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H2" s="44" t="s">
         <v>42</v>
@@ -47019,43 +47033,43 @@
         <v>70</v>
       </c>
       <c r="K2" s="20" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="L2" s="20" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M2" s="20" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="N2" s="20" t="s">
         <v>131</v>
       </c>
       <c r="O2" s="20" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="P2" s="20" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Q2" s="45" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="R2" s="45" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="S2" s="20">
         <v>1.0</v>
       </c>
       <c r="T2" s="45" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="U2" s="45" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="W2" s="20" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="X2" s="20" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="3">
@@ -47066,7 +47080,7 @@
         <v>52</v>
       </c>
       <c r="C3" s="43" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D3" s="44" t="s">
         <v>56</v>
@@ -47081,16 +47095,16 @@
         <v>188</v>
       </c>
       <c r="H3" s="44" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="I3" s="20" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="J3" s="43" t="s">
         <v>284</v>
       </c>
       <c r="K3" s="20" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="L3" s="20" t="s">
         <v>45</v>
@@ -47099,34 +47113,34 @@
         <v>90</v>
       </c>
       <c r="N3" s="20" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="O3" s="20" t="s">
         <v>166</v>
       </c>
       <c r="P3" s="20" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Q3" s="45" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="R3" s="45" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="S3" s="20">
         <v>2.0</v>
       </c>
       <c r="T3" s="45" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="U3" s="45" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="W3" s="20" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="X3" s="20" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="4">
@@ -47140,31 +47154,31 @@
         <v>63</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E4" s="43" t="s">
         <v>87</v>
       </c>
       <c r="F4" s="43" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="G4" s="43" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H4" s="47" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="I4" s="20" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="J4" s="46" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="K4" s="20" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="L4" s="20" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="M4" s="20" t="s">
         <v>130</v>
@@ -47173,102 +47187,102 @@
         <v>189</v>
       </c>
       <c r="O4" s="20" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="P4" s="20" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="Q4" s="45" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="R4" s="45" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="S4" s="20">
         <v>3.0</v>
       </c>
       <c r="T4" s="45" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="U4" s="45" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="W4" s="20" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="X4" s="20" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="42" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C5" s="43" t="s">
         <v>298</v>
       </c>
       <c r="D5" s="44" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E5" s="43" t="s">
         <v>261</v>
       </c>
       <c r="F5" s="43" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="G5" s="43" t="s">
         <v>228</v>
       </c>
       <c r="H5" s="47" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="I5" s="20" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="J5" s="43" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="K5" s="20" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="L5" s="20" t="s">
         <v>57</v>
       </c>
       <c r="M5" s="20" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="N5" s="20" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="O5" s="20" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="P5" s="20" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="Q5" s="45" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="R5" s="45" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="S5" s="20">
         <v>4.0</v>
       </c>
       <c r="T5" s="45" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="U5" s="45" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="W5" s="20" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="X5" s="20" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="6">
@@ -47279,72 +47293,72 @@
         <v>181</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D6" s="44" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E6" s="43" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H6" s="48" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="I6" s="43" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="J6" s="20" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="K6" s="20" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L6" s="20" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M6" s="20" t="s">
         <v>154</v>
       </c>
       <c r="N6" s="20" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="O6" s="20" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="P6" s="20" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="Q6" s="45" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="R6" s="45" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="S6" s="20">
         <v>5.0</v>
       </c>
       <c r="T6" s="45" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="U6" s="45" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="W6" s="20" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="20" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B7" s="46" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C7" s="46" t="s">
         <v>111</v>
@@ -47353,61 +47367,61 @@
         <v>308</v>
       </c>
       <c r="E7" s="43" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="F7" s="43" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H7" s="48"/>
       <c r="I7" s="20" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="J7" s="20" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="K7" s="20" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="L7" s="20" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="M7" s="20" t="s">
         <v>264</v>
       </c>
       <c r="N7" s="20" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="O7" s="20" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="P7" s="20" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="Q7" s="45" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="R7" s="45" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="S7" s="20">
         <v>6.0</v>
       </c>
       <c r="T7" s="45" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="U7" s="45" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="W7" s="20" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="42" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B8" s="43" t="s">
         <v>280</v>
@@ -47416,10 +47430,10 @@
         <v>50</v>
       </c>
       <c r="D8" s="44" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E8" s="43" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F8" s="20" t="s">
         <v>269</v>
@@ -47429,37 +47443,37 @@
       </c>
       <c r="H8" s="44"/>
       <c r="I8" s="20" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J8" s="43" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="L8" s="20" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="M8" s="20" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="N8" s="20" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="P8" s="20" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="Q8" s="45" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="R8" s="45" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="T8" s="45" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="U8" s="45" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="W8" s="20" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="9">
@@ -47470,57 +47484,57 @@
         <v>38</v>
       </c>
       <c r="C9" s="46" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D9" s="44" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="E9" s="46" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="F9" s="46" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G9" s="49" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H9" s="50"/>
       <c r="I9" s="20" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="J9" s="46" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="L9" s="20" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="P9" s="20" t="s">
         <v>190</v>
       </c>
       <c r="Q9" s="45" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="R9" s="45" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="T9" s="45" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="U9" s="45" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="W9" s="20" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="42" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B10" s="42"/>
       <c r="C10" s="42"/>
       <c r="D10" s="20" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="E10" s="46" t="s">
         <v>307</v>
@@ -47529,32 +47543,32 @@
         <v>298</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H10" s="48"/>
       <c r="I10" s="51" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="J10" s="20" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="L10" s="20" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="P10" s="20" t="s">
         <v>258</v>
       </c>
       <c r="Q10" s="45" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="R10" s="45" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="T10" s="45" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="U10" s="45" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="11">
@@ -47564,35 +47578,35 @@
       <c r="B11" s="42"/>
       <c r="C11" s="42"/>
       <c r="D11" s="44" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="E11" s="43" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="F11" s="43" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="G11" s="43" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H11" s="44"/>
       <c r="I11" s="43" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="J11" s="46" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="L11" s="20" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="P11" s="20" t="s">
         <v>91</v>
       </c>
       <c r="T11" s="45" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="U11" s="45" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="12">
@@ -47602,69 +47616,69 @@
       <c r="B12" s="42"/>
       <c r="C12" s="42"/>
       <c r="D12" s="44" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E12" s="43" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="F12" s="43" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="G12" s="43" t="s">
         <v>182</v>
       </c>
       <c r="H12" s="44"/>
       <c r="I12" s="20" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="J12" s="43" t="s">
         <v>45</v>
       </c>
       <c r="L12" s="20" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="P12" s="46"/>
       <c r="T12" s="45" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="U12" s="45" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="46" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B13" s="42"/>
       <c r="C13" s="42"/>
       <c r="D13" s="44" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="E13" s="46" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F13" s="46" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="G13" s="46" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H13" s="52"/>
       <c r="I13" s="20" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="J13" s="46" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="L13" s="20" t="s">
         <v>289</v>
       </c>
       <c r="P13" s="46"/>
       <c r="T13" s="45" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="U13" s="45" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="14">
@@ -47674,95 +47688,95 @@
       <c r="B14" s="42"/>
       <c r="C14" s="42"/>
       <c r="D14" s="20" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="E14" s="46" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="F14" s="46" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="G14" s="46" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H14" s="52"/>
       <c r="I14" s="43" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="J14" s="42"/>
       <c r="L14" s="20" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="T14" s="45" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="U14" s="45" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="42"/>
       <c r="D15" s="44" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H15" s="37"/>
       <c r="I15" s="43" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="16">
       <c r="D16" s="20" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H16" s="37"/>
       <c r="I16" s="43" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="17">
       <c r="D17" s="44" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H17" s="37"/>
       <c r="I17" s="49" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="J17" s="46" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="K17" s="46" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="L17" s="46" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="M17" s="46" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="N17" s="46" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="O17" s="46" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="18">
       <c r="D18" s="37"/>
       <c r="G18" s="20" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H18" s="37"/>
       <c r="I18" s="20" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="J18" s="46" t="s">
         <v>132</v>
@@ -47787,13 +47801,13 @@
       <c r="D19" s="37"/>
       <c r="H19" s="37"/>
       <c r="I19" s="20" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="20">
       <c r="D20" s="37"/>
       <c r="I20" s="43" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="21">
@@ -47857,28 +47871,28 @@
       <c r="B1" s="36"/>
       <c r="C1" s="37"/>
       <c r="E1" s="53" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="F1" s="54"/>
       <c r="G1" s="55" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H1" s="54"/>
       <c r="I1" s="56" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="J1" s="54"/>
       <c r="K1" s="57" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="L1" s="54"/>
       <c r="M1" s="58" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="N1" s="54"/>
       <c r="O1" s="59"/>
       <c r="P1" s="60" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="Q1" s="61"/>
     </row>
@@ -47886,38 +47900,38 @@
       <c r="B2" s="36"/>
       <c r="C2" s="37"/>
       <c r="E2" s="62" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="F2" s="62" t="s">
+        <v>580</v>
+      </c>
+      <c r="G2" s="63" t="s">
         <v>579</v>
       </c>
-      <c r="G2" s="63" t="s">
-        <v>578</v>
-      </c>
       <c r="H2" s="63" t="s">
+        <v>580</v>
+      </c>
+      <c r="I2" s="64" t="s">
         <v>579</v>
       </c>
-      <c r="I2" s="64" t="s">
-        <v>578</v>
-      </c>
       <c r="J2" s="64" t="s">
+        <v>580</v>
+      </c>
+      <c r="K2" s="65" t="s">
         <v>579</v>
       </c>
-      <c r="K2" s="65" t="s">
-        <v>578</v>
-      </c>
       <c r="L2" s="65" t="s">
+        <v>580</v>
+      </c>
+      <c r="M2" s="66" t="s">
         <v>579</v>
       </c>
-      <c r="M2" s="66" t="s">
-        <v>578</v>
-      </c>
       <c r="N2" s="66" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="O2" s="67"/>
       <c r="P2" s="60" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="Q2" s="68">
         <v>1.0</v>
@@ -47941,7 +47955,7 @@
       <c r="M3" s="76"/>
       <c r="N3" s="76"/>
       <c r="P3" s="60" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="Q3" s="68">
         <v>2.0</v>
@@ -47959,7 +47973,7 @@
       <c r="M4" s="76"/>
       <c r="N4" s="76"/>
       <c r="P4" s="60" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="Q4" s="68">
         <v>3.0</v>
@@ -47970,34 +47984,34 @@
         <v>3.0</v>
       </c>
       <c r="F5" s="77" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="G5" s="78" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H5" s="78" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="I5" s="79">
         <v>44928.0</v>
       </c>
       <c r="J5" s="80" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="K5" s="81">
         <v>44928.0</v>
       </c>
       <c r="L5" s="82" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="M5" s="83">
         <v>1.0</v>
       </c>
       <c r="N5" s="83" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="P5" s="60" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="Q5" s="68">
         <v>4.0</v>
@@ -48022,34 +48036,34 @@
         <v>3.0</v>
       </c>
       <c r="F7" s="86" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="G7" s="78">
         <v>2.0</v>
       </c>
       <c r="H7" s="78" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="I7" s="80">
         <v>3.0</v>
       </c>
       <c r="J7" s="80" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="K7" s="87">
         <v>44928.0</v>
       </c>
       <c r="L7" s="82" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="M7" s="83">
         <v>1.0</v>
       </c>
       <c r="N7" s="83" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="P7" s="88" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="Q7" s="54"/>
     </row>
@@ -48058,34 +48072,34 @@
         <v>3.0</v>
       </c>
       <c r="F8" s="77" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="G8" s="78">
         <v>2.0</v>
       </c>
       <c r="H8" s="78" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="I8" s="80">
         <v>2.0</v>
       </c>
       <c r="J8" s="80" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="K8" s="87">
         <v>44928.0</v>
       </c>
       <c r="L8" s="82" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="M8" s="83">
         <v>1.0</v>
       </c>
       <c r="N8" s="83" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="P8" s="89" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="Q8" s="90">
         <v>1.0</v>
@@ -48103,7 +48117,7 @@
       <c r="M9" s="76"/>
       <c r="N9" s="76"/>
       <c r="P9" s="89" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="Q9" s="90">
         <v>2.0</v>
@@ -48114,13 +48128,13 @@
         <v>3.0</v>
       </c>
       <c r="F10" s="91" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="G10" s="92">
         <v>2.0</v>
       </c>
       <c r="H10" s="92" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="I10" s="93">
         <v>3.0</v>
@@ -48130,16 +48144,16 @@
         <v>2.0</v>
       </c>
       <c r="L10" s="95" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="M10" s="96">
         <v>2.0</v>
       </c>
       <c r="N10" s="96" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="P10" s="89" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="Q10" s="90">
         <v>3.0</v>
@@ -48151,7 +48165,7 @@
       </c>
       <c r="F11" s="72"/>
       <c r="G11" s="78" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="H11" s="73"/>
       <c r="I11" s="80">
@@ -48165,7 +48179,7 @@
       <c r="M11" s="76"/>
       <c r="N11" s="76"/>
       <c r="P11" s="89" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="Q11" s="97"/>
     </row>
@@ -48188,19 +48202,19 @@
         <v>3.0</v>
       </c>
       <c r="F13" s="77" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="G13" s="78">
         <v>3.0</v>
       </c>
       <c r="H13" s="78" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="I13" s="80">
         <v>3.0</v>
       </c>
       <c r="J13" s="80" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="K13" s="82">
         <v>2.0</v>
@@ -48210,10 +48224,10 @@
         <v>1.0</v>
       </c>
       <c r="N13" s="83" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="P13" s="100" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="Q13" s="101"/>
     </row>
@@ -48222,19 +48236,19 @@
         <v>3.0</v>
       </c>
       <c r="F14" s="91" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="G14" s="78">
         <v>3.0</v>
       </c>
       <c r="H14" s="78" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="I14" s="80">
         <v>3.0</v>
       </c>
       <c r="J14" s="80" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="K14" s="82">
         <v>2.0</v>
@@ -48244,10 +48258,10 @@
         <v>1.0</v>
       </c>
       <c r="N14" s="83" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="P14" s="100" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="Q14" s="102">
         <v>1.0</v>
@@ -48265,7 +48279,7 @@
       <c r="M15" s="76"/>
       <c r="N15" s="76"/>
       <c r="P15" s="100" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="Q15" s="102">
         <v>2.0</v>
@@ -48318,7 +48332,7 @@
       <c r="M18" s="76"/>
       <c r="N18" s="76"/>
       <c r="P18" s="100" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="Q18" s="102">
         <v>3.0</v>
@@ -48336,7 +48350,7 @@
       <c r="M19" s="76"/>
       <c r="N19" s="76"/>
       <c r="P19" s="100" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="Q19" s="102">
         <v>4.0</v>
@@ -48347,31 +48361,31 @@
         <v>3.0</v>
       </c>
       <c r="F20" s="86" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="G20" s="78">
         <v>2.0</v>
       </c>
       <c r="H20" s="78" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="I20" s="80">
         <v>3.0</v>
       </c>
       <c r="J20" s="80" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="K20" s="87">
         <v>44928.0</v>
       </c>
       <c r="L20" s="82" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="M20" s="83">
         <v>1.0</v>
       </c>
       <c r="N20" s="83" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="P20" s="98"/>
       <c r="Q20" s="99"/>
@@ -48388,7 +48402,7 @@
       <c r="M21" s="76"/>
       <c r="N21" s="76"/>
       <c r="P21" s="103" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="Q21" s="104"/>
     </row>
@@ -48404,7 +48418,7 @@
       <c r="M22" s="76"/>
       <c r="N22" s="76"/>
       <c r="P22" s="103" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="Q22" s="105">
         <v>1.0</v>
@@ -48422,7 +48436,7 @@
       <c r="M23" s="76"/>
       <c r="N23" s="76"/>
       <c r="P23" s="103" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="Q23" s="105">
         <v>2.0</v>
@@ -48440,7 +48454,7 @@
       <c r="M24" s="76"/>
       <c r="N24" s="76"/>
       <c r="P24" s="103" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="Q24" s="105">
         <v>3.0</v>
@@ -48451,7 +48465,7 @@
         <v>3.0</v>
       </c>
       <c r="F25" s="77" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="G25" s="73"/>
       <c r="H25" s="73"/>
@@ -48484,7 +48498,7 @@
       <c r="M26" s="76"/>
       <c r="N26" s="76"/>
       <c r="P26" s="107" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="Q26" s="108"/>
     </row>
@@ -48553,7 +48567,7 @@
       <c r="M30" s="76"/>
       <c r="N30" s="76"/>
       <c r="P30" s="107" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="Q30" s="109">
         <v>1.0</v>
@@ -48571,7 +48585,7 @@
       <c r="M31" s="76"/>
       <c r="N31" s="76"/>
       <c r="P31" s="107" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="Q31" s="109">
         <v>2.0</v>
@@ -48582,11 +48596,11 @@
         <v>3.0</v>
       </c>
       <c r="F32" s="77" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="G32" s="78"/>
       <c r="H32" s="78" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="I32" s="80">
         <v>3.0</v>
@@ -48601,7 +48615,7 @@
       </c>
       <c r="N32" s="76"/>
       <c r="P32" s="107" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="Q32" s="109">
         <v>3.0</v>
@@ -48612,25 +48626,25 @@
         <v>3.0</v>
       </c>
       <c r="F33" s="112" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G33" s="113">
         <v>3.0</v>
       </c>
       <c r="H33" s="114" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="I33" s="115">
         <v>2.0</v>
       </c>
       <c r="J33" s="116" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="K33" s="117">
         <v>2.0</v>
       </c>
       <c r="L33" s="118" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="M33" s="119">
         <v>1.0</v>
@@ -48656,31 +48670,31 @@
         <v>3.0</v>
       </c>
       <c r="F35" s="86" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="G35" s="78">
         <v>2.0</v>
       </c>
       <c r="H35" s="78" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="I35" s="80">
         <v>3.0</v>
       </c>
       <c r="J35" s="80" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="K35" s="82">
         <v>2.0</v>
       </c>
       <c r="L35" s="82" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="M35" s="83">
         <v>1.0</v>
       </c>
       <c r="N35" s="83" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="P35" s="121"/>
     </row>
@@ -48689,31 +48703,31 @@
         <v>3.0</v>
       </c>
       <c r="F36" s="77" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="G36" s="78">
         <v>2.0</v>
       </c>
       <c r="H36" s="78" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="I36" s="80">
         <v>2.0</v>
       </c>
       <c r="J36" s="80" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="K36" s="87">
         <v>44928.0</v>
       </c>
       <c r="L36" s="82" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="M36" s="83">
         <v>1.0</v>
       </c>
       <c r="N36" s="83" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="P36" s="121"/>
     </row>
@@ -48722,31 +48736,31 @@
         <v>3.0</v>
       </c>
       <c r="F37" s="91" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="G37" s="92">
         <v>2.0</v>
       </c>
       <c r="H37" s="92" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="I37" s="93">
         <v>3.0</v>
       </c>
       <c r="J37" s="80" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="K37" s="95">
         <v>2.0</v>
       </c>
       <c r="L37" s="95" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="M37" s="96">
         <v>2.0</v>
       </c>
       <c r="N37" s="96" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="P37" s="121"/>
     </row>
@@ -48755,25 +48769,25 @@
         <v>3.0</v>
       </c>
       <c r="F38" s="77" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="G38" s="78">
         <v>2.0</v>
       </c>
       <c r="H38" s="78" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="I38" s="80">
         <v>3.0</v>
       </c>
       <c r="J38" s="122" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="K38" s="82">
         <v>1.0</v>
       </c>
       <c r="L38" s="123" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="M38" s="83">
         <v>1.0</v>
@@ -48786,31 +48800,31 @@
         <v>3.0</v>
       </c>
       <c r="F39" s="125" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="G39" s="126" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="H39" s="127" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="I39" s="128">
         <v>2.0</v>
       </c>
       <c r="J39" s="116" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="K39" s="129">
         <v>2.0</v>
       </c>
       <c r="L39" s="123" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="M39" s="130">
         <v>1.0</v>
       </c>
       <c r="N39" s="131" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="P39" s="121"/>
     </row>
@@ -48819,13 +48833,13 @@
         <v>3.0</v>
       </c>
       <c r="F40" s="112" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="G40" s="113">
         <v>2.0</v>
       </c>
       <c r="H40" s="114" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="I40" s="115">
         <v>3.0</v>
@@ -48835,7 +48849,7 @@
         <v>2.0</v>
       </c>
       <c r="L40" s="118" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="M40" s="119">
         <v>2.0</v>
@@ -48861,31 +48875,31 @@
         <v>3.0</v>
       </c>
       <c r="F42" s="112" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="G42" s="113">
         <v>2.0</v>
       </c>
       <c r="H42" s="114" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="I42" s="115">
         <v>2.0</v>
       </c>
       <c r="J42" s="116" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="K42" s="117">
         <v>2.0</v>
       </c>
       <c r="L42" s="118" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="M42" s="119">
         <v>1.0</v>
       </c>
       <c r="N42" s="131" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="P42" s="121"/>
     </row>
@@ -48933,19 +48947,19 @@
         <v>3.0</v>
       </c>
       <c r="F46" s="77" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="G46" s="78">
         <v>3.0</v>
       </c>
       <c r="H46" s="78" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="I46" s="80">
         <v>3.0</v>
       </c>
       <c r="J46" s="80" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="K46" s="82">
         <v>2.0</v>
@@ -48955,7 +48969,7 @@
         <v>1.0</v>
       </c>
       <c r="N46" s="83" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="P46" s="121"/>
     </row>
@@ -48966,7 +48980,7 @@
       <c r="F47" s="77"/>
       <c r="G47" s="78"/>
       <c r="H47" s="78" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="I47" s="80">
         <v>3.0</v>
@@ -48987,13 +49001,13 @@
         <v>3.0</v>
       </c>
       <c r="F48" s="77" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="G48" s="78">
         <v>2.0</v>
       </c>
       <c r="H48" s="78" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="I48" s="80">
         <v>3.0</v>
@@ -49137,31 +49151,31 @@
         <v>4.0</v>
       </c>
       <c r="F57" s="132" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="G57" s="78">
         <v>2.0</v>
       </c>
       <c r="H57" s="78" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="I57" s="80">
         <v>3.0</v>
       </c>
       <c r="J57" s="80" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="K57" s="82">
         <v>2.0</v>
       </c>
       <c r="L57" s="82" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="M57" s="83" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="N57" s="83" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="P57" s="121"/>
     </row>
@@ -49183,13 +49197,13 @@
         <v>3.0</v>
       </c>
       <c r="F59" s="91" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="G59" s="92">
         <v>2.0</v>
       </c>
       <c r="H59" s="92" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="I59" s="93">
         <v>3.0</v>
@@ -49199,13 +49213,13 @@
         <v>2.0</v>
       </c>
       <c r="L59" s="95" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="M59" s="96">
         <v>2.0</v>
       </c>
       <c r="N59" s="96" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="P59" s="121"/>
     </row>
@@ -49358,31 +49372,31 @@
         <v>3.0</v>
       </c>
       <c r="F70" s="132" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="G70" s="133">
         <v>2.0</v>
       </c>
       <c r="H70" s="134" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="I70" s="135">
         <v>3.0</v>
       </c>
       <c r="J70" s="136" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="K70" s="137">
         <v>2.0</v>
       </c>
       <c r="L70" s="138" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="M70" s="139" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="N70" s="140" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="P70" s="121"/>
     </row>
@@ -49391,31 +49405,31 @@
         <v>3.0</v>
       </c>
       <c r="F71" s="77" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="G71" s="78">
         <v>2.0</v>
       </c>
       <c r="H71" s="78" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="I71" s="80">
         <v>2.0</v>
       </c>
       <c r="J71" s="80" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="K71" s="87">
         <v>44928.0</v>
       </c>
       <c r="L71" s="82" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="M71" s="83">
         <v>1.0</v>
       </c>
       <c r="N71" s="83" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="P71" s="121"/>
     </row>
@@ -49437,13 +49451,13 @@
         <v>3.0</v>
       </c>
       <c r="F73" s="91" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="G73" s="92">
         <v>2.0</v>
       </c>
       <c r="H73" s="92" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="I73" s="94"/>
       <c r="J73" s="94"/>
@@ -49471,7 +49485,7 @@
         <v>3.0</v>
       </c>
       <c r="F75" s="143" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="G75" s="78">
         <v>2.0</v>
@@ -49509,7 +49523,7 @@
         <v>3.0</v>
       </c>
       <c r="F77" s="77" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="G77" s="78">
         <v>2.0</v>
@@ -49638,31 +49652,31 @@
         <v>3.0</v>
       </c>
       <c r="F85" s="132" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="G85" s="133">
         <v>2.0</v>
       </c>
       <c r="H85" s="134" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="I85" s="135">
         <v>3.0</v>
       </c>
       <c r="J85" s="136" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="K85" s="137">
         <v>2.0</v>
       </c>
       <c r="L85" s="138" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="M85" s="154">
         <v>1.0</v>
       </c>
       <c r="N85" s="140" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="P85" s="121"/>
     </row>
@@ -49671,13 +49685,13 @@
         <v>3.0</v>
       </c>
       <c r="F86" s="91" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="G86" s="92">
         <v>2.0</v>
       </c>
       <c r="H86" s="92" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="I86" s="93">
         <v>3.0</v>
@@ -49687,13 +49701,13 @@
         <v>2.0</v>
       </c>
       <c r="L86" s="95" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="M86" s="96">
         <v>2.0</v>
       </c>
       <c r="N86" s="96" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="P86" s="121"/>
     </row>
@@ -49702,7 +49716,7 @@
         <v>3.0</v>
       </c>
       <c r="F87" s="77" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="G87" s="73"/>
       <c r="H87" s="73"/>
@@ -49727,31 +49741,31 @@
         <v>3.0</v>
       </c>
       <c r="F88" s="77" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="G88" s="78">
         <v>2.0</v>
       </c>
       <c r="H88" s="78" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="I88" s="80">
         <v>3.0</v>
       </c>
       <c r="J88" s="80" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="K88" s="82">
         <v>2.0</v>
       </c>
       <c r="L88" s="82" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="M88" s="83">
         <v>1.0</v>
       </c>
       <c r="N88" s="83" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="P88" s="121"/>
     </row>
@@ -49877,31 +49891,31 @@
         <v>3.0</v>
       </c>
       <c r="F96" s="132" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="G96" s="133">
         <v>2.0</v>
       </c>
       <c r="H96" s="134" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="I96" s="135">
         <v>3.0</v>
       </c>
       <c r="J96" s="136" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="K96" s="166">
         <v>44928.0</v>
       </c>
       <c r="L96" s="138" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="M96" s="154">
         <v>1.0</v>
       </c>
       <c r="N96" s="140" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="P96" s="121"/>
     </row>
@@ -49910,31 +49924,31 @@
         <v>3.0</v>
       </c>
       <c r="F97" s="77" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="G97" s="78">
         <v>2.0</v>
       </c>
       <c r="H97" s="78" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="I97" s="80">
         <v>2.0</v>
       </c>
       <c r="J97" s="80" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="K97" s="87">
         <v>44928.0</v>
       </c>
       <c r="L97" s="82" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="M97" s="83">
         <v>1.0</v>
       </c>
       <c r="N97" s="83" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="P97" s="121"/>
     </row>
@@ -49969,31 +49983,31 @@
         <v>3.0</v>
       </c>
       <c r="F100" s="112" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="G100" s="113">
         <v>2.0</v>
       </c>
       <c r="H100" s="114" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="I100" s="115">
         <v>3.0</v>
       </c>
       <c r="J100" s="116" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="K100" s="117">
         <v>2.0</v>
       </c>
       <c r="L100" s="118" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="M100" s="119">
         <v>2.0</v>
       </c>
       <c r="N100" s="131" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="P100" s="121"/>
     </row>
@@ -50002,19 +50016,19 @@
         <v>3.0</v>
       </c>
       <c r="F101" s="77" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="G101" s="78">
         <v>3.0</v>
       </c>
       <c r="H101" s="78" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="I101" s="80">
         <v>3.0</v>
       </c>
       <c r="J101" s="80" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="K101" s="82">
         <v>2.0</v>
@@ -50024,7 +50038,7 @@
         <v>1.0</v>
       </c>
       <c r="N101" s="83" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="P101" s="121"/>
     </row>
@@ -63827,31 +63841,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="167" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B1" s="167" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C1" s="167" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="D1" s="167" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="E1" s="167" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="F1" s="167" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="G1" s="167" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H1" s="168" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="I1" s="168" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="J1" s="169"/>
       <c r="K1" s="169"/>
@@ -63875,27 +63889,27 @@
     </row>
     <row r="2">
       <c r="A2" s="172" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B2" s="172"/>
       <c r="C2" s="172" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="D2" s="172" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="E2" s="172"/>
       <c r="F2" s="172" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="G2" s="172" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="H2" s="172" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="I2" s="173" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="J2" s="174"/>
       <c r="K2" s="174"/>
@@ -63923,20 +63937,20 @@
       </c>
       <c r="B3" s="172"/>
       <c r="C3" s="172" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="D3" s="172" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="E3" s="172"/>
       <c r="F3" s="172" t="s">
         <v>168</v>
       </c>
       <c r="G3" s="172" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="H3" s="172" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="I3" s="173"/>
       <c r="J3" s="174"/>
@@ -63961,31 +63975,31 @@
     </row>
     <row r="4">
       <c r="A4" s="172" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B4" s="172">
         <v>3.0</v>
       </c>
       <c r="C4" s="172" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="D4" s="172" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="E4" s="172" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="F4" s="172" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="G4" s="172" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="H4" s="172" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="I4" s="176" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="J4" s="177"/>
       <c r="K4" s="177"/>
@@ -64009,31 +64023,31 @@
     </row>
     <row r="5">
       <c r="A5" s="172" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B5" s="172">
         <v>2.0</v>
       </c>
       <c r="C5" s="172" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="D5" s="172" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="E5" s="172" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="F5" s="172" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="G5" s="172" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="H5" s="172" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="I5" s="176" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="J5" s="177"/>
       <c r="K5" s="177"/>
@@ -64057,31 +64071,31 @@
     </row>
     <row r="6">
       <c r="A6" s="172" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B6" s="172">
         <v>2.0</v>
       </c>
       <c r="C6" s="172" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="D6" s="172" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="E6" s="172" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="F6" s="172" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="G6" s="172" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="H6" s="172" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="I6" s="176" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="J6" s="177"/>
       <c r="K6" s="177"/>
@@ -64105,31 +64119,31 @@
     </row>
     <row r="7">
       <c r="A7" s="172" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B7" s="172">
         <v>2.0</v>
       </c>
       <c r="C7" s="172" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="D7" s="172" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="E7" s="172" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="F7" s="172" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G7" s="172" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H7" s="172" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="I7" s="176" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="J7" s="177"/>
       <c r="K7" s="177"/>
@@ -64153,27 +64167,27 @@
     </row>
     <row r="8">
       <c r="A8" s="172" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B8" s="172">
         <v>3.0</v>
       </c>
       <c r="C8" s="172" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="D8" s="172" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="E8" s="172" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="F8" s="172"/>
       <c r="G8" s="172" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H8" s="172"/>
       <c r="I8" s="176" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="J8" s="177"/>
       <c r="K8" s="177"/>
@@ -64197,25 +64211,25 @@
     </row>
     <row r="9">
       <c r="A9" s="172" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B9" s="172">
         <v>3.0</v>
       </c>
       <c r="C9" s="172" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="D9" s="172" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E9" s="179"/>
       <c r="F9" s="179"/>
       <c r="G9" s="172" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H9" s="172"/>
       <c r="I9" s="176" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="J9" s="177"/>
       <c r="K9" s="177"/>
@@ -64239,27 +64253,27 @@
     </row>
     <row r="10">
       <c r="A10" s="172" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B10" s="172">
         <v>2.0</v>
       </c>
       <c r="C10" s="172" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D10" s="172" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="E10" s="172" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="F10" s="172"/>
       <c r="G10" s="172"/>
       <c r="H10" s="172" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="I10" s="176" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="J10" s="177"/>
       <c r="K10" s="177"/>
@@ -64283,27 +64297,27 @@
     </row>
     <row r="11">
       <c r="A11" s="172" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B11" s="172">
         <v>2.0</v>
       </c>
       <c r="C11" s="172" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="D11" s="172" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E11" s="172" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="F11" s="172"/>
       <c r="G11" s="172" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="H11" s="172"/>
       <c r="I11" s="176" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="J11" s="177"/>
       <c r="K11" s="177"/>
@@ -64327,23 +64341,23 @@
     </row>
     <row r="12">
       <c r="A12" s="180" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B12" s="179"/>
       <c r="C12" s="172" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="D12" s="179"/>
       <c r="E12" s="172" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="F12" s="172"/>
       <c r="G12" s="172" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="H12" s="179"/>
       <c r="I12" s="176" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="J12" s="177"/>
       <c r="K12" s="177"/>
@@ -64367,25 +64381,25 @@
     </row>
     <row r="13">
       <c r="A13" s="180" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B13" s="179"/>
       <c r="C13" s="172" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="D13" s="172" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="E13" s="172" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="F13" s="172"/>
       <c r="G13" s="172" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H13" s="172"/>
       <c r="I13" s="176" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="J13" s="177"/>
       <c r="K13" s="177"/>
@@ -64409,23 +64423,23 @@
     </row>
     <row r="14">
       <c r="A14" s="180" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B14" s="179"/>
       <c r="C14" s="172" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="D14" s="172" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E14" s="172" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="F14" s="172"/>
       <c r="G14" s="179"/>
       <c r="H14" s="172"/>
       <c r="I14" s="176" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="J14" s="177"/>
       <c r="K14" s="177"/>
@@ -64449,25 +64463,25 @@
     </row>
     <row r="15">
       <c r="A15" s="180" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B15" s="179"/>
       <c r="C15" s="172" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="D15" s="172" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="E15" s="172" t="s">
         <v>191</v>
       </c>
       <c r="F15" s="172"/>
       <c r="G15" s="172" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H15" s="172"/>
       <c r="I15" s="176" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="J15" s="177"/>
       <c r="K15" s="177"/>
@@ -64491,7 +64505,7 @@
     </row>
     <row r="16">
       <c r="A16" s="180" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="B16" s="179"/>
       <c r="C16" s="179"/>
@@ -64523,25 +64537,25 @@
     </row>
     <row r="17">
       <c r="A17" s="180" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="B17" s="179"/>
       <c r="C17" s="172" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="D17" s="172" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E17" s="172" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="F17" s="172"/>
       <c r="G17" s="172" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H17" s="172"/>
       <c r="I17" s="176" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="J17" s="177"/>
       <c r="K17" s="177"/>
@@ -64565,25 +64579,25 @@
     </row>
     <row r="18">
       <c r="A18" s="180" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="B18" s="179"/>
       <c r="C18" s="172" t="s">
+        <v>759</v>
+      </c>
+      <c r="D18" s="172" t="s">
+        <v>398</v>
+      </c>
+      <c r="E18" s="172" t="s">
         <v>758</v>
-      </c>
-      <c r="D18" s="172" t="s">
-        <v>397</v>
-      </c>
-      <c r="E18" s="172" t="s">
-        <v>757</v>
       </c>
       <c r="F18" s="172"/>
       <c r="G18" s="172" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H18" s="172"/>
       <c r="I18" s="176" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="J18" s="177"/>
       <c r="K18" s="177"/>
@@ -64607,7 +64621,7 @@
     </row>
     <row r="19">
       <c r="A19" s="180" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B19" s="179"/>
       <c r="C19" s="179"/>
@@ -64615,7 +64629,7 @@
       <c r="E19" s="179"/>
       <c r="F19" s="179"/>
       <c r="G19" s="172" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H19" s="179"/>
       <c r="I19" s="181"/>
@@ -64641,25 +64655,25 @@
     </row>
     <row r="20">
       <c r="A20" s="172" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B20" s="172">
         <v>2.0</v>
       </c>
       <c r="C20" s="172" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="D20" s="172" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="E20" s="172" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="F20" s="172"/>
       <c r="G20" s="172"/>
       <c r="H20" s="172"/>
       <c r="I20" s="176" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="J20" s="177"/>
       <c r="K20" s="177"/>
@@ -64683,25 +64697,25 @@
     </row>
     <row r="21">
       <c r="A21" s="180" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B21" s="172">
         <v>3.0</v>
       </c>
       <c r="C21" s="172" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="D21" s="172" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E21" s="172" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="F21" s="172"/>
       <c r="G21" s="172"/>
       <c r="H21" s="172"/>
       <c r="I21" s="176" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="J21" s="177"/>
       <c r="K21" s="177"/>
@@ -64725,27 +64739,27 @@
     </row>
     <row r="22">
       <c r="A22" s="185" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B22" s="172">
         <v>2.0</v>
       </c>
       <c r="C22" s="172" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="D22" s="172" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="E22" s="172" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="F22" s="172"/>
       <c r="G22" s="172" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H22" s="172"/>
       <c r="I22" s="176" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="J22" s="177"/>
       <c r="K22" s="177"/>
@@ -64769,27 +64783,27 @@
     </row>
     <row r="23">
       <c r="A23" s="185" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B23" s="172">
         <v>2.0</v>
       </c>
       <c r="C23" s="172" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="D23" s="172" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E23" s="172" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="F23" s="172"/>
       <c r="G23" s="172" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H23" s="172"/>
       <c r="I23" s="176" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="J23" s="177"/>
       <c r="K23" s="177"/>
@@ -64813,25 +64827,25 @@
     </row>
     <row r="24">
       <c r="A24" s="185" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="B24" s="172">
         <v>2.0</v>
       </c>
       <c r="C24" s="172" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="D24" s="172" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="E24" s="172" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="F24" s="172"/>
       <c r="G24" s="172"/>
       <c r="H24" s="172"/>
       <c r="I24" s="176" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="J24" s="177"/>
       <c r="K24" s="177"/>
@@ -64861,16 +64875,16 @@
         <v>2.0</v>
       </c>
       <c r="C25" s="186" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="D25" s="188"/>
       <c r="E25" s="186" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="F25" s="188"/>
       <c r="G25" s="172"/>
       <c r="H25" s="172" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="I25" s="189"/>
       <c r="J25" s="190"/>
@@ -64895,17 +64909,17 @@
     </row>
     <row r="26">
       <c r="A26" s="185" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="B26" s="172"/>
       <c r="C26" s="172" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="D26" s="172" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="E26" s="172" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="F26" s="172"/>
       <c r="G26" s="172"/>
@@ -64933,21 +64947,21 @@
     </row>
     <row r="27">
       <c r="A27" s="185" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="B27" s="172"/>
       <c r="C27" s="172" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="D27" s="172" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="E27" s="172" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="F27" s="172"/>
       <c r="G27" s="172" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="H27" s="172"/>
       <c r="I27" s="192"/>
@@ -64973,21 +64987,21 @@
     </row>
     <row r="28">
       <c r="A28" s="185" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B28" s="172"/>
       <c r="C28" s="172" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="D28" s="172" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="E28" s="172" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="F28" s="172"/>
       <c r="G28" s="172" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H28" s="185"/>
       <c r="I28" s="173"/>
@@ -65013,21 +65027,21 @@
     </row>
     <row r="29">
       <c r="A29" s="185" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B29" s="172"/>
       <c r="C29" s="172" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="D29" s="172" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="E29" s="172" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="F29" s="172"/>
       <c r="G29" s="172" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H29" s="185"/>
       <c r="I29" s="173"/>
@@ -65053,17 +65067,17 @@
     </row>
     <row r="30">
       <c r="A30" s="195" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="B30" s="188"/>
       <c r="C30" s="172" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="D30" s="172" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="E30" s="172" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="F30" s="188"/>
       <c r="G30" s="172"/>
@@ -65091,27 +65105,27 @@
     </row>
     <row r="31">
       <c r="A31" s="196" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="B31" s="188"/>
       <c r="C31" s="197" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="D31" s="186" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="E31" s="186" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="F31" s="188"/>
       <c r="G31" s="186" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H31" s="198" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="I31" s="199" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="J31" s="184"/>
       <c r="K31" s="184"/>
@@ -65359,7 +65373,7 @@
     <row r="51"/>
     <row r="57">
       <c r="A57" s="20" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E57" s="20">
         <v>1.0</v>
@@ -65436,10 +65450,10 @@
         <v>10</v>
       </c>
       <c r="H1" s="203" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="I1" s="203" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="J1" s="203" t="s">
         <v>13</v>
@@ -65469,12 +65483,12 @@
         <v>28</v>
       </c>
       <c r="S1" s="204" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="205" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
     </row>
   </sheetData>
@@ -65515,40 +65529,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="167" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B1" s="206" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C1" s="206" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="D1" s="206" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="E1" s="168" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="F1" s="168" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="G1" s="168" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="H1" s="167" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="I1" s="167" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="J1" s="167" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="K1" s="167" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="L1" s="168" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="M1" s="169"/>
       <c r="N1" s="169"/>
@@ -65572,7 +65586,7 @@
     </row>
     <row r="2">
       <c r="A2" s="207" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="B2" s="207" t="b">
         <v>0</v>
@@ -65587,25 +65601,25 @@
         <v>151</v>
       </c>
       <c r="F2" s="207" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="G2" s="207" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="H2" s="210" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="I2" s="207" t="s">
+        <v>434</v>
+      </c>
+      <c r="J2" s="207" t="s">
         <v>433</v>
-      </c>
-      <c r="J2" s="207" t="s">
-        <v>432</v>
       </c>
       <c r="K2" s="211">
         <v>1.0E-10</v>
       </c>
       <c r="L2" s="207" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="M2" s="212"/>
       <c r="N2" s="212"/>
@@ -65629,7 +65643,7 @@
     </row>
     <row r="3">
       <c r="A3" s="207" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="B3" s="207" t="b">
         <v>0</v>
@@ -65645,16 +65659,16 @@
       </c>
       <c r="F3" s="207"/>
       <c r="G3" s="207" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="H3" s="210" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="I3" s="207"/>
       <c r="J3" s="207"/>
       <c r="K3" s="213"/>
       <c r="L3" s="207" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="M3" s="212"/>
       <c r="N3" s="212"/>
@@ -65678,7 +65692,7 @@
     </row>
     <row r="4">
       <c r="A4" s="207" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="B4" s="207" t="b">
         <v>0</v>
@@ -65694,10 +65708,10 @@
       </c>
       <c r="F4" s="207"/>
       <c r="G4" s="207" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="H4" s="210" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="I4" s="207"/>
       <c r="J4" s="207"/>
@@ -65725,7 +65739,7 @@
     </row>
     <row r="5">
       <c r="A5" s="207" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="B5" s="207" t="b">
         <v>0</v>
@@ -65741,10 +65755,10 @@
       </c>
       <c r="F5" s="207"/>
       <c r="G5" s="207" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="H5" s="210" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="I5" s="207"/>
       <c r="J5" s="207"/>
@@ -65772,7 +65786,7 @@
     </row>
     <row r="6">
       <c r="A6" s="207" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B6" s="207" t="b">
         <v>0</v>
@@ -65786,16 +65800,16 @@
       <c r="E6" s="207"/>
       <c r="F6" s="207"/>
       <c r="G6" s="207" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="H6" s="210" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="I6" s="207"/>
       <c r="J6" s="207"/>
       <c r="K6" s="213"/>
       <c r="L6" s="214" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="M6" s="215"/>
       <c r="N6" s="215"/>
@@ -65819,7 +65833,7 @@
     </row>
     <row r="7">
       <c r="A7" s="207" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B7" s="207" t="b">
         <v>0</v>
@@ -65833,16 +65847,16 @@
       <c r="E7" s="207"/>
       <c r="F7" s="207"/>
       <c r="G7" s="207" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="H7" s="210" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="I7" s="207"/>
       <c r="J7" s="207"/>
       <c r="K7" s="213"/>
       <c r="L7" s="214" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="M7" s="215"/>
       <c r="N7" s="215"/>
@@ -65866,7 +65880,7 @@
     </row>
     <row r="8">
       <c r="A8" s="207" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B8" s="207" t="b">
         <v>0</v>
@@ -65880,16 +65894,16 @@
       <c r="E8" s="207"/>
       <c r="F8" s="207"/>
       <c r="G8" s="207" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="H8" s="210" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="I8" s="207"/>
       <c r="J8" s="207"/>
       <c r="K8" s="213"/>
       <c r="L8" s="214" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="M8" s="215"/>
       <c r="N8" s="215"/>
@@ -65913,7 +65927,7 @@
     </row>
     <row r="9">
       <c r="A9" s="207" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B9" s="207" t="b">
         <v>0</v>
@@ -65927,16 +65941,16 @@
       <c r="E9" s="207"/>
       <c r="F9" s="207"/>
       <c r="G9" s="207" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="H9" s="210" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="I9" s="207"/>
       <c r="J9" s="207"/>
       <c r="K9" s="213"/>
       <c r="L9" s="214" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="M9" s="215"/>
       <c r="N9" s="215"/>
@@ -65960,7 +65974,7 @@
     </row>
     <row r="10">
       <c r="A10" s="207" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B10" s="207" t="b">
         <v>0</v>
@@ -65974,16 +65988,16 @@
       <c r="E10" s="207"/>
       <c r="F10" s="207"/>
       <c r="G10" s="207" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="H10" s="210" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="I10" s="207"/>
       <c r="J10" s="207"/>
       <c r="K10" s="213"/>
       <c r="L10" s="214" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="M10" s="215"/>
       <c r="N10" s="215"/>
@@ -66007,7 +66021,7 @@
     </row>
     <row r="11">
       <c r="A11" s="207" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B11" s="207" t="b">
         <v>0</v>
@@ -66021,16 +66035,16 @@
       <c r="E11" s="207"/>
       <c r="F11" s="207"/>
       <c r="G11" s="207" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="H11" s="210" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="I11" s="207"/>
       <c r="J11" s="207"/>
       <c r="K11" s="213"/>
       <c r="L11" s="214" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="M11" s="215"/>
       <c r="N11" s="215"/>
@@ -66054,7 +66068,7 @@
     </row>
     <row r="12">
       <c r="A12" s="207" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B12" s="207" t="b">
         <v>0</v>
@@ -66068,16 +66082,16 @@
       <c r="E12" s="207"/>
       <c r="F12" s="207"/>
       <c r="G12" s="207" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="H12" s="210" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="I12" s="207"/>
       <c r="J12" s="207"/>
       <c r="K12" s="213"/>
       <c r="L12" s="214" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="M12" s="215"/>
       <c r="N12" s="215"/>
@@ -66101,7 +66115,7 @@
     </row>
     <row r="13">
       <c r="A13" s="207" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B13" s="207" t="b">
         <v>0</v>
@@ -66115,16 +66129,16 @@
       <c r="E13" s="207"/>
       <c r="F13" s="207"/>
       <c r="G13" s="207" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="H13" s="210" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="I13" s="207"/>
       <c r="J13" s="207"/>
       <c r="K13" s="213"/>
       <c r="L13" s="214" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="M13" s="215"/>
       <c r="N13" s="215"/>
@@ -66148,7 +66162,7 @@
     </row>
     <row r="14">
       <c r="A14" s="217" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B14" s="218" t="b">
         <v>0</v>
@@ -66162,16 +66176,16 @@
       <c r="E14" s="207"/>
       <c r="F14" s="207"/>
       <c r="G14" s="207" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="H14" s="210" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="I14" s="207"/>
       <c r="J14" s="207"/>
       <c r="K14" s="213"/>
       <c r="L14" s="214" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="M14" s="215"/>
       <c r="N14" s="215"/>
@@ -66195,7 +66209,7 @@
     </row>
     <row r="15">
       <c r="A15" s="217" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B15" s="218" t="b">
         <v>0</v>
@@ -66209,16 +66223,16 @@
       <c r="E15" s="207"/>
       <c r="F15" s="207"/>
       <c r="G15" s="207" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="H15" s="210" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="I15" s="207"/>
       <c r="J15" s="207"/>
       <c r="K15" s="213"/>
       <c r="L15" s="214" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="M15" s="215"/>
       <c r="N15" s="215"/>
@@ -66242,7 +66256,7 @@
     </row>
     <row r="16">
       <c r="A16" s="217" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B16" s="218" t="b">
         <v>0</v>
@@ -66256,16 +66270,16 @@
       <c r="E16" s="207"/>
       <c r="F16" s="207"/>
       <c r="G16" s="207" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="H16" s="210" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="I16" s="207"/>
       <c r="J16" s="207"/>
       <c r="K16" s="213"/>
       <c r="L16" s="214" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="M16" s="215"/>
       <c r="N16" s="215"/>
@@ -66289,7 +66303,7 @@
     </row>
     <row r="17">
       <c r="A17" s="217" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B17" s="218" t="b">
         <v>0</v>
@@ -66303,16 +66317,16 @@
       <c r="E17" s="207"/>
       <c r="F17" s="207"/>
       <c r="G17" s="207" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="H17" s="210" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="I17" s="207"/>
       <c r="J17" s="207"/>
       <c r="K17" s="213"/>
       <c r="L17" s="214" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="M17" s="215"/>
       <c r="N17" s="215"/>
@@ -66336,7 +66350,7 @@
     </row>
     <row r="18">
       <c r="A18" s="217" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="B18" s="218" t="b">
         <v>0</v>
@@ -66350,10 +66364,10 @@
       <c r="E18" s="207"/>
       <c r="F18" s="207"/>
       <c r="G18" s="207" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="H18" s="210" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="I18" s="207"/>
       <c r="J18" s="207"/>
@@ -66381,7 +66395,7 @@
     </row>
     <row r="19">
       <c r="A19" s="217" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="B19" s="218" t="b">
         <v>0</v>
@@ -66395,16 +66409,16 @@
       <c r="E19" s="207"/>
       <c r="F19" s="207"/>
       <c r="G19" s="207" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="H19" s="210" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="I19" s="207"/>
       <c r="J19" s="207"/>
       <c r="K19" s="213"/>
       <c r="L19" s="214" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="M19" s="215"/>
       <c r="N19" s="215"/>
@@ -66428,7 +66442,7 @@
     </row>
     <row r="20">
       <c r="A20" s="217" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="B20" s="218" t="b">
         <v>0</v>
@@ -66442,16 +66456,16 @@
       <c r="E20" s="207"/>
       <c r="F20" s="207"/>
       <c r="G20" s="207" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="H20" s="210" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="I20" s="207"/>
       <c r="J20" s="207"/>
       <c r="K20" s="213"/>
       <c r="L20" s="214" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="M20" s="215"/>
       <c r="N20" s="215"/>
@@ -66475,7 +66489,7 @@
     </row>
     <row r="21">
       <c r="A21" s="217" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B21" s="218" t="b">
         <v>0</v>
@@ -66489,10 +66503,10 @@
       <c r="E21" s="207"/>
       <c r="F21" s="207"/>
       <c r="G21" s="207" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="H21" s="210" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="I21" s="207"/>
       <c r="J21" s="207"/>
@@ -66520,7 +66534,7 @@
     </row>
     <row r="22">
       <c r="A22" s="207" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B22" s="207" t="b">
         <v>0</v>
@@ -66534,16 +66548,16 @@
       <c r="E22" s="207"/>
       <c r="F22" s="207"/>
       <c r="G22" s="207" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="H22" s="210" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="I22" s="207"/>
       <c r="J22" s="207"/>
       <c r="K22" s="213"/>
       <c r="L22" s="214" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="M22" s="215"/>
       <c r="N22" s="215"/>
@@ -66567,7 +66581,7 @@
     </row>
     <row r="23">
       <c r="A23" s="217" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B23" s="207" t="b">
         <v>0</v>
@@ -66581,16 +66595,16 @@
       <c r="E23" s="207"/>
       <c r="F23" s="207"/>
       <c r="G23" s="207" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="H23" s="210" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="I23" s="207"/>
       <c r="J23" s="207"/>
       <c r="K23" s="213"/>
       <c r="L23" s="214" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="M23" s="215"/>
       <c r="N23" s="215"/>
@@ -66614,7 +66628,7 @@
     </row>
     <row r="24">
       <c r="A24" s="222" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B24" s="207" t="b">
         <v>0</v>
@@ -66628,16 +66642,16 @@
       <c r="E24" s="207"/>
       <c r="F24" s="207"/>
       <c r="G24" s="207" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="H24" s="210" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="I24" s="207"/>
       <c r="J24" s="207"/>
       <c r="K24" s="213"/>
       <c r="L24" s="214" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="M24" s="215"/>
       <c r="N24" s="215"/>
@@ -66661,7 +66675,7 @@
     </row>
     <row r="25">
       <c r="A25" s="222" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B25" s="207" t="b">
         <v>0</v>
@@ -66675,16 +66689,16 @@
       <c r="E25" s="207"/>
       <c r="F25" s="207"/>
       <c r="G25" s="207" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="H25" s="210" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="I25" s="207"/>
       <c r="J25" s="207"/>
       <c r="K25" s="213"/>
       <c r="L25" s="214" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="M25" s="215"/>
       <c r="N25" s="215"/>
@@ -66708,7 +66722,7 @@
     </row>
     <row r="26">
       <c r="A26" s="222" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="B26" s="207" t="b">
         <v>0</v>
@@ -66722,16 +66736,16 @@
       <c r="E26" s="207"/>
       <c r="F26" s="207"/>
       <c r="G26" s="207" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="H26" s="210" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="I26" s="207"/>
       <c r="J26" s="207"/>
       <c r="K26" s="213"/>
       <c r="L26" s="214" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="M26" s="215"/>
       <c r="N26" s="215"/>
@@ -66771,16 +66785,16 @@
       </c>
       <c r="F27" s="225"/>
       <c r="G27" s="207" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="H27" s="210" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="I27" s="207"/>
       <c r="J27" s="207"/>
       <c r="K27" s="213"/>
       <c r="L27" s="207" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="M27" s="191"/>
       <c r="N27" s="191"/>

--- a/exama-software.xlsx
+++ b/exama-software.xlsx
@@ -98,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2222" uniqueCount="1143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2220" uniqueCount="1143">
   <si>
     <t>Software</t>
   </si>
@@ -7969,7 +7969,7 @@
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Benchmarks" cacheId="0" dataCaption="" rowGrandTotals="0" compact="0" compactData="0">
-  <location ref="A1:K14" firstHeaderRow="0" firstDataRow="10" firstDataCol="0"/>
+  <location ref="A1:K13" firstHeaderRow="0" firstDataRow="10" firstDataCol="0"/>
   <pivotFields>
     <pivotField name="Software" axis="axisRow" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending" defaultSubtotal="0">
       <items>
@@ -18224,7 +18224,7 @@
       <c r="D23" s="19"/>
       <c r="E23" s="19"/>
       <c r="F23" s="5" t="s">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
@@ -18253,7 +18253,7 @@
         <v>225</v>
       </c>
       <c r="S23" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T23" s="10"/>
       <c r="U23" s="10" t="b">
@@ -42985,7 +42985,10 @@
     <row r="11"/>
     <row r="12"/>
     <row r="13"/>
-    <row r="14"/>
+    <row r="14">
+      <c r="B14" s="36"/>
+      <c r="D14" s="37"/>
+    </row>
     <row r="15">
       <c r="B15" s="36"/>
       <c r="D15" s="37"/>

--- a/exama-software.xlsx
+++ b/exama-software.xlsx
@@ -378,7 +378,7 @@
 krylov solver</t>
   </si>
   <si>
-    <t>PaStIX,
+    <t>PaStiX,
 qr_mumps,
 MUMPS,
 Scotch</t>
@@ -777,7 +777,7 @@
 Feel++,
 PETSc,
 MUMPS,
-PaStIX</t>
+PaStiX</t>
   </si>
   <si>
     <t>ICoCo coupling interface</t>
@@ -961,7 +961,7 @@
 Test - Validation</t>
   </si>
   <si>
-    <t>PaStIX</t>
+    <t>PaStiX</t>
   </si>
   <si>
     <t>Inria, Université Bordeaux, BINP</t>
@@ -1059,8 +1059,7 @@
 MMG/ParMMG,
 MUMPS,
 Scotch,
-PaStIX,
-HPdomain decomposition methods</t>
+PaStiX, HPDDM</t>
   </si>
   <si>
     <t>PLEIADES</t>
@@ -6557,7 +6556,7 @@
         <s v="MMG/ParMMG"/>
         <s v="MUMPS"/>
         <s v="OpenTURNS"/>
-        <s v="PaStIX"/>
+        <s v="PaStiX"/>
         <s v="pBB"/>
         <s v="PETSc"/>
         <s v="PLEIADES"/>
@@ -7033,7 +7032,7 @@
         <s v="MMG/ParMMG"/>
         <s v="MUMPS"/>
         <s v="OpenTURNS"/>
-        <s v="PaStIX"/>
+        <s v="PaStiX"/>
         <s v="pBB"/>
         <s v="PETSc"/>
         <s v="PLEIADES"/>
@@ -7451,14 +7450,14 @@
     <cacheField name="Interfaces" numFmtId="0">
       <sharedItems containsBlank="1">
         <m/>
-        <s v="PaStIX,&#10;qr_mumps,&#10;MUMPS,&#10;Scotch"/>
+        <s v="PaStiX,&#10;qr_mumps,&#10;MUMPS,&#10;Scotch"/>
         <s v="OpenTurns,&#10;MMG/ParMMG,&#10;PETSc,&#10;Salome,&#10;Dymola/OpenModelica/FMU,&#10;HPdomain decomposition methods"/>
         <s v="PETSc,&#10;MMG/ParMMG,&#10;Scotch,&#10;MUMPS,&#10;HPdomain decomposition methods"/>
         <s v="MUMPS"/>
-        <s v="Freefem++,&#10;Feel++,&#10;PETSc,&#10;MUMPS,&#10;PaStIX"/>
+        <s v="Freefem++,&#10;Feel++,&#10;PETSc,&#10;MUMPS,&#10;PaStiX"/>
         <s v="Arcane Framework"/>
         <s v="Scotch"/>
-        <s v="Freefem++,&#10;Feel++,&#10;MMG/ParMMG,&#10;MUMPS,&#10;Scotch,&#10;PaStIX,&#10;HPdomain decomposition methods"/>
+        <s v="Freefem++,&#10;Feel++,&#10;MMG/ParMMG,&#10;MUMPS,&#10;Scotch,&#10;PaStiX, HPDDM"/>
         <s v="CADNA"/>
         <s v="StarPU,&#10;Scotch"/>
         <s v="PETSc"/>
@@ -7503,7 +7502,7 @@
         <s v="MMG/ParMMG"/>
         <s v="MUMPS"/>
         <s v="OpenTURNS"/>
-        <s v="PaStIX"/>
+        <s v="PaStiX"/>
         <s v="pBB"/>
         <s v="PETSc"/>
         <s v="PLEIADES"/>
@@ -7946,14 +7945,14 @@
     <cacheField name="Interfaces" numFmtId="0">
       <sharedItems containsBlank="1">
         <m/>
-        <s v="PaStIX,&#10;qr_mumps,&#10;MUMPS,&#10;Scotch"/>
+        <s v="PaStiX,&#10;qr_mumps,&#10;MUMPS,&#10;Scotch"/>
         <s v="OpenTurns,&#10;MMG/ParMMG,&#10;PETSc,&#10;Salome,&#10;Dymola/OpenModelica/FMU,&#10;HPdomain decomposition methods"/>
         <s v="PETSc,&#10;MMG/ParMMG,&#10;Scotch,&#10;MUMPS,&#10;HPdomain decomposition methods"/>
         <s v="MUMPS"/>
-        <s v="Freefem++,&#10;Feel++,&#10;PETSc,&#10;MUMPS,&#10;PaStIX"/>
+        <s v="Freefem++,&#10;Feel++,&#10;PETSc,&#10;MUMPS,&#10;PaStiX"/>
         <s v="Arcane Framework"/>
         <s v="Scotch"/>
-        <s v="Freefem++,&#10;Feel++,&#10;MMG/ParMMG,&#10;MUMPS,&#10;Scotch,&#10;PaStIX,&#10;HPdomain decomposition methods"/>
+        <s v="Freefem++,&#10;Feel++,&#10;MMG/ParMMG,&#10;MUMPS,&#10;Scotch,&#10;PaStiX, HPDDM"/>
         <s v="CADNA"/>
         <s v="StarPU,&#10;Scotch"/>
         <s v="PETSc"/>

--- a/exama-software.xlsx
+++ b/exama-software.xlsx
@@ -98,23 +98,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2220" uniqueCount="1143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2223" uniqueCount="1143">
   <si>
     <t>Software</t>
   </si>
   <si>
+    <t>Emails</t>
+  </si>
+  <si>
+    <t>Partner</t>
+  </si>
+  <si>
+    <t>Compte Github</t>
+  </si>
+  <si>
     <t>Consortium</t>
   </si>
   <si>
-    <t>Partner</t>
-  </si>
-  <si>
-    <t>Emails</t>
-  </si>
-  <si>
-    <t>Compte Github</t>
-  </si>
-  <si>
     <t>Benchmarked</t>
   </si>
   <si>
@@ -199,13 +199,13 @@
     <t>Arcane Framework</t>
   </si>
   <si>
+    <t>lydie.grospellier@cea.fr</t>
+  </si>
+  <si>
+    <t>CEA</t>
+  </si>
+  <si>
     <t>CEA, IFPEN</t>
-  </si>
-  <si>
-    <t>CEA</t>
-  </si>
-  <si>
-    <t>lydie.grospellier@cea.fr</t>
   </si>
   <si>
     <t>CPU Only, CPU or GPU</t>
@@ -260,10 +260,10 @@
     <t>CADNA</t>
   </si>
   <si>
+    <t>Fabienne.Jezequel@lip6.fr</t>
+  </si>
+  <si>
     <t>Sorbonne U</t>
-  </si>
-  <si>
-    <t>Fabienne.Jezequel@lip6.fr</t>
   </si>
   <si>
     <t>NOT YET</t>
@@ -294,16 +294,16 @@
     <t>CGAL</t>
   </si>
   <si>
+    <t>pierre.alliez@inria.fr, christos.georgiadis@inria.fr</t>
+  </si>
+  <si>
+    <t>Inria CA</t>
+  </si>
+  <si>
+    <t>palliez</t>
+  </si>
+  <si>
     <t>Inria</t>
-  </si>
-  <si>
-    <t>Inria CA</t>
-  </si>
-  <si>
-    <t>pierre.alliez@inria.fr</t>
-  </si>
-  <si>
-    <t>palliez</t>
   </si>
   <si>
     <t>CPU Only</t>
@@ -343,10 +343,10 @@
     <t>Composyx</t>
   </si>
   <si>
+    <t>gilles.marait@inria.fr</t>
+  </si>
+  <si>
     <t>Inria BXSO</t>
-  </si>
-  <si>
-    <t>gilles.marait@inria.fr</t>
   </si>
   <si>
     <t>https://gitlab.inria.fr/composyx/composyx</t>
@@ -387,10 +387,10 @@
     <t>croco</t>
   </si>
   <si>
+    <t>Laurent.Debreu@inria.fr</t>
+  </si>
+  <si>
     <t xml:space="preserve">Inria, IRD, CNRS, Univ Paul Sabatier, SHOM, Ifremer </t>
-  </si>
-  <si>
-    <t>Laurent.Debreu@inria.fr</t>
   </si>
   <si>
     <t>Softs volumineux</t>
@@ -497,7 +497,7 @@
     <t>Feel++</t>
   </si>
   <si>
-    <t>Feel++ Consortium</t>
+    <t>christophe.prudhomme@cemosis.fr, vincent.chabannes@cemosis.fr</t>
   </si>
   <si>
     <t>Unistra,
@@ -505,10 +505,10 @@
 CNRS</t>
   </si>
   <si>
-    <t>christophe.prudhomme@cemosis.fr, vincent.chabannes@cemosis.fr</t>
-  </si>
-  <si>
     <t>prudhomm, vincentchabannes</t>
+  </si>
+  <si>
+    <t>Feel++ Consortium</t>
   </si>
   <si>
     <t>https://github.com/feelpp/feelpp</t>
@@ -604,13 +604,13 @@
     <t>Freefem++</t>
   </si>
   <si>
-    <t>Sorbonne U,
-Inria PARIS</t>
-  </si>
-  <si>
     <t>frederic.hecht@sorbonne-universite.fr ,
 pierre-henri.tournier@sorbonne-universite.fr, 
 pierre.jolivet@sorbonne-universite.fr</t>
+  </si>
+  <si>
+    <t>Sorbonne U,
+Inria PARIS</t>
   </si>
   <si>
     <t>prj-</t>
@@ -663,10 +663,10 @@
     <t>GeoS</t>
   </si>
   <si>
+    <t>stefano.frambati@totalenergies.fr</t>
+  </si>
+  <si>
     <t>LLNL,Stanford,TE</t>
-  </si>
-  <si>
-    <t>stefano.frambati@totalenergies.fr</t>
   </si>
   <si>
     <t>https://github.com/orgs/GEOSX</t>
@@ -822,10 +822,10 @@
     <t>MANTA</t>
   </si>
   <si>
+    <t>olivier.jamond@cea.fr</t>
+  </si>
+  <si>
     <t>CEA + consortium in development (see EUROPLEXUS)</t>
-  </si>
-  <si>
-    <t>olivier.jamond@cea.fr</t>
   </si>
   <si>
     <t>Accès au code et repo à voir avec le contact Olivier Jamond (solutions transitoires à ce stade au niveau CEA)</t>
@@ -981,13 +981,13 @@
     <t>pBB</t>
   </si>
   <si>
+    <t>nouredine.melab@univ-lille.fr</t>
+  </si>
+  <si>
+    <t>Inria Lille</t>
+  </si>
+  <si>
     <t>Université de Lille</t>
-  </si>
-  <si>
-    <t>Inria Lille</t>
-  </si>
-  <si>
-    <t>nouredine.melab@univ-lille.fr</t>
   </si>
   <si>
     <t>https://gitlab.inria.fr/jgmys/permutationbb</t>
@@ -1146,17 +1146,17 @@
     <t>Samurai</t>
   </si>
   <si>
-    <t>IP Paris</t>
+    <t>Loic Gouarin</t>
   </si>
   <si>
     <t>CEA,
 IPP</t>
   </si>
   <si>
-    <t>Loic Gouarin</t>
-  </si>
-  <si>
     <t>gouarin</t>
+  </si>
+  <si>
+    <t>IP Paris</t>
   </si>
   <si>
     <t>https://github.com/hpc-maths/samurai</t>
@@ -1217,16 +1217,16 @@
     <t>Scimba</t>
   </si>
   <si>
+    <t>emmanuel.franck@inria.fr</t>
+  </si>
+  <si>
+    <t>Unistra</t>
+  </si>
+  <si>
+    <t>efranck21</t>
+  </si>
+  <si>
     <t>UNISTRA, INRIA</t>
-  </si>
-  <si>
-    <t>Unistra</t>
-  </si>
-  <si>
-    <t>emmanuel.franck@inria.fr</t>
-  </si>
-  <si>
-    <t>efranck21</t>
   </si>
   <si>
     <t>Pytorch</t>
@@ -6578,6 +6578,59 @@
         <s v="Zellij"/>
       </sharedItems>
     </cacheField>
+    <cacheField name="Emails" numFmtId="0">
+      <sharedItems containsBlank="1">
+        <s v="lydie.grospellier@cea.fr"/>
+        <s v="Fabienne.Jezequel@lip6.fr"/>
+        <s v="pierre.alliez@inria.fr, christos.georgiadis@inria.fr"/>
+        <s v="gilles.marait@inria.fr"/>
+        <s v="Laurent.Debreu@inria.fr"/>
+        <m/>
+        <s v="christophe.prudhomme@cemosis.fr, vincent.chabannes@cemosis.fr"/>
+        <s v="frederic.hecht@sorbonne-universite.fr ,&#10;pierre-henri.tournier@sorbonne-universite.fr, &#10;pierre.jolivet@sorbonne-universite.fr"/>
+        <s v="stefano.frambati@totalenergies.fr"/>
+        <s v="florian.faucher@inria.fr"/>
+        <s v="pierre@joliv.et"/>
+        <s v="jean-philippe.perlat@cea.fr"/>
+        <s v="olivier.jamond@cea.fr"/>
+        <s v="nouredine.melab@univ-lille.fr"/>
+        <s v="Loic Gouarin"/>
+        <s v="olivier.coulaud@inria.fr"/>
+        <s v="emmanuel.franck@inria.fr"/>
+        <s v="berenger.bramas@inria.fr"/>
+        <s v="pierre.ledac@cea.fr"/>
+        <s v="rudy.chocat@cea.fr, jean-baptiste.blanchard@cea.fr"/>
+        <s v="el-ghazali.talbi@univ-lille.fr"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Partner" numFmtId="0">
+      <sharedItems containsBlank="1">
+        <s v="CEA"/>
+        <m/>
+        <s v="Inria CA"/>
+        <s v="Inria BXSO"/>
+        <s v="Unistra,&#10;Inria Grenoble,&#10;CNRS"/>
+        <s v="Sorbonne U,&#10;Inria PARIS"/>
+        <s v="Inria BXSO,&#10;U Grenoble Alpes,&#10;Sorbonne U"/>
+        <s v="Sorbonne U"/>
+        <s v="Inria Lille"/>
+        <s v="CNRS"/>
+        <s v="CEA,&#10;IPP"/>
+        <s v="Unistra"/>
+        <s v="Inria"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Compte Github" numFmtId="0">
+      <sharedItems containsBlank="1">
+        <m/>
+        <s v="palliez"/>
+        <s v="prudhomm, vincentchabannes"/>
+        <s v="prj-"/>
+        <s v="flofaucher"/>
+        <s v="gouarin"/>
+        <s v="efranck21"/>
+      </sharedItems>
+    </cacheField>
     <cacheField name="Consortium" numFmtId="0">
       <sharedItems containsBlank="1">
         <s v="CEA, IFPEN"/>
@@ -6602,59 +6655,6 @@
         <s v="IP Paris"/>
         <s v="UNISTRA, INRIA"/>
         <s v="DeepMind"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Partner" numFmtId="0">
-      <sharedItems containsBlank="1">
-        <s v="CEA"/>
-        <m/>
-        <s v="Inria CA"/>
-        <s v="Inria BXSO"/>
-        <s v="Unistra,&#10;Inria Grenoble,&#10;CNRS"/>
-        <s v="Sorbonne U,&#10;Inria PARIS"/>
-        <s v="Inria BXSO,&#10;U Grenoble Alpes,&#10;Sorbonne U"/>
-        <s v="Sorbonne U"/>
-        <s v="Inria Lille"/>
-        <s v="CNRS"/>
-        <s v="CEA,&#10;IPP"/>
-        <s v="Unistra"/>
-        <s v="Inria"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Emails" numFmtId="0">
-      <sharedItems containsBlank="1">
-        <s v="lydie.grospellier@cea.fr"/>
-        <s v="Fabienne.Jezequel@lip6.fr"/>
-        <s v="pierre.alliez@inria.fr"/>
-        <s v="gilles.marait@inria.fr"/>
-        <s v="Laurent.Debreu@inria.fr"/>
-        <m/>
-        <s v="christophe.prudhomme@cemosis.fr, vincent.chabannes@cemosis.fr"/>
-        <s v="frederic.hecht@sorbonne-universite.fr ,&#10;pierre-henri.tournier@sorbonne-universite.fr, &#10;pierre.jolivet@sorbonne-universite.fr"/>
-        <s v="stefano.frambati@totalenergies.fr"/>
-        <s v="florian.faucher@inria.fr"/>
-        <s v="pierre@joliv.et"/>
-        <s v="jean-philippe.perlat@cea.fr"/>
-        <s v="olivier.jamond@cea.fr"/>
-        <s v="nouredine.melab@univ-lille.fr"/>
-        <s v="Loic Gouarin"/>
-        <s v="olivier.coulaud@inria.fr"/>
-        <s v="emmanuel.franck@inria.fr"/>
-        <s v="berenger.bramas@inria.fr"/>
-        <s v="pierre.ledac@cea.fr"/>
-        <s v="rudy.chocat@cea.fr, jean-baptiste.blanchard@cea.fr"/>
-        <s v="el-ghazali.talbi@univ-lille.fr"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Compte Github" numFmtId="0">
-      <sharedItems containsBlank="1">
-        <m/>
-        <s v="palliez"/>
-        <s v="prudhomm, vincentchabannes"/>
-        <s v="prj-"/>
-        <s v="flofaucher"/>
-        <s v="gouarin"/>
-        <s v="efranck21"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Benchmarked" numFmtId="0">
@@ -7050,6 +7050,56 @@
         <s v="tensorflow"/>
       </sharedItems>
     </cacheField>
+    <cacheField name="Emails" numFmtId="0">
+      <sharedItems containsBlank="1">
+        <s v="lydie.grospellier@cea.fr"/>
+        <s v="Fabienne.Jezequel@lip6.fr"/>
+        <s v="pierre.alliez@inria.fr, christos.georgiadis@inria.fr"/>
+        <s v="gilles.marait@inria.fr"/>
+        <s v="Laurent.Debreu@inria.fr"/>
+        <m/>
+        <s v="christophe.prudhomme@cemosis.fr, vincent.chabannes@cemosis.fr"/>
+        <s v="frederic.hecht@sorbonne-universite.fr ,&#10;pierre-henri.tournier@sorbonne-universite.fr, &#10;pierre.jolivet@sorbonne-universite.fr"/>
+        <s v="stefano.frambati@totalenergies.fr"/>
+        <s v="florian.faucher@inria.fr"/>
+        <s v="pierre@joliv.et"/>
+        <s v="jean-philippe.perlat@cea.fr"/>
+        <s v="olivier.jamond@cea.fr"/>
+        <s v="nouredine.melab@univ-lille.fr"/>
+        <s v="Loic Gouarin"/>
+        <s v="olivier.coulaud@inria.fr"/>
+        <s v="emmanuel.franck@inria.fr"/>
+        <s v="berenger.bramas@inria.fr"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Partner" numFmtId="0">
+      <sharedItems containsBlank="1">
+        <s v="CEA"/>
+        <m/>
+        <s v="Inria CA"/>
+        <s v="Inria BXSO"/>
+        <s v="Unistra,&#10;Inria Grenoble,&#10;CNRS"/>
+        <s v="Sorbonne U,&#10;Inria PARIS"/>
+        <s v="Inria BXSO,&#10;U Grenoble Alpes,&#10;Sorbonne U"/>
+        <s v="Sorbonne U"/>
+        <s v="Inria Lille"/>
+        <s v="CNRS"/>
+        <s v="CEA,&#10;IPP"/>
+        <s v="Unistra"/>
+        <s v="Inria"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Compte Github" numFmtId="0">
+      <sharedItems containsBlank="1">
+        <m/>
+        <s v="palliez"/>
+        <s v="prudhomm, vincentchabannes"/>
+        <s v="prj-"/>
+        <s v="flofaucher"/>
+        <s v="gouarin"/>
+        <s v="efranck21"/>
+      </sharedItems>
+    </cacheField>
     <cacheField name="Consortium" numFmtId="0">
       <sharedItems containsBlank="1">
         <s v="CEA, IFPEN"/>
@@ -7073,56 +7123,6 @@
         <s v="EDF,CEA"/>
         <s v="IP Paris"/>
         <s v="UNISTRA, INRIA"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Partner" numFmtId="0">
-      <sharedItems containsBlank="1">
-        <s v="CEA"/>
-        <m/>
-        <s v="Inria CA"/>
-        <s v="Inria BXSO"/>
-        <s v="Unistra,&#10;Inria Grenoble,&#10;CNRS"/>
-        <s v="Sorbonne U,&#10;Inria PARIS"/>
-        <s v="Inria BXSO,&#10;U Grenoble Alpes,&#10;Sorbonne U"/>
-        <s v="Sorbonne U"/>
-        <s v="Inria Lille"/>
-        <s v="CNRS"/>
-        <s v="CEA,&#10;IPP"/>
-        <s v="Unistra"/>
-        <s v="Inria"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Emails" numFmtId="0">
-      <sharedItems containsBlank="1">
-        <s v="lydie.grospellier@cea.fr"/>
-        <s v="Fabienne.Jezequel@lip6.fr"/>
-        <s v="pierre.alliez@inria.fr"/>
-        <s v="gilles.marait@inria.fr"/>
-        <s v="Laurent.Debreu@inria.fr"/>
-        <m/>
-        <s v="christophe.prudhomme@cemosis.fr, vincent.chabannes@cemosis.fr"/>
-        <s v="frederic.hecht@sorbonne-universite.fr ,&#10;pierre-henri.tournier@sorbonne-universite.fr, &#10;pierre.jolivet@sorbonne-universite.fr"/>
-        <s v="stefano.frambati@totalenergies.fr"/>
-        <s v="florian.faucher@inria.fr"/>
-        <s v="pierre@joliv.et"/>
-        <s v="jean-philippe.perlat@cea.fr"/>
-        <s v="olivier.jamond@cea.fr"/>
-        <s v="nouredine.melab@univ-lille.fr"/>
-        <s v="Loic Gouarin"/>
-        <s v="olivier.coulaud@inria.fr"/>
-        <s v="emmanuel.franck@inria.fr"/>
-        <s v="berenger.bramas@inria.fr"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Compte Github" numFmtId="0">
-      <sharedItems containsBlank="1">
-        <m/>
-        <s v="palliez"/>
-        <s v="prudhomm, vincentchabannes"/>
-        <s v="prj-"/>
-        <s v="flofaucher"/>
-        <s v="gouarin"/>
-        <s v="efranck21"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Benchmarked" numFmtId="0">
@@ -7524,6 +7524,59 @@
         <s v="Zellij"/>
       </sharedItems>
     </cacheField>
+    <cacheField name="Emails" numFmtId="0">
+      <sharedItems containsBlank="1">
+        <s v="lydie.grospellier@cea.fr"/>
+        <s v="Fabienne.Jezequel@lip6.fr"/>
+        <s v="pierre.alliez@inria.fr, christos.georgiadis@inria.fr"/>
+        <s v="gilles.marait@inria.fr"/>
+        <s v="Laurent.Debreu@inria.fr"/>
+        <m/>
+        <s v="christophe.prudhomme@cemosis.fr, vincent.chabannes@cemosis.fr"/>
+        <s v="frederic.hecht@sorbonne-universite.fr ,&#10;pierre-henri.tournier@sorbonne-universite.fr, &#10;pierre.jolivet@sorbonne-universite.fr"/>
+        <s v="stefano.frambati@totalenergies.fr"/>
+        <s v="florian.faucher@inria.fr"/>
+        <s v="pierre@joliv.et"/>
+        <s v="jean-philippe.perlat@cea.fr"/>
+        <s v="olivier.jamond@cea.fr"/>
+        <s v="nouredine.melab@univ-lille.fr"/>
+        <s v="Loic Gouarin"/>
+        <s v="olivier.coulaud@inria.fr"/>
+        <s v="emmanuel.franck@inria.fr"/>
+        <s v="berenger.bramas@inria.fr"/>
+        <s v="pierre.ledac@cea.fr"/>
+        <s v="rudy.chocat@cea.fr, jean-baptiste.blanchard@cea.fr"/>
+        <s v="el-ghazali.talbi@univ-lille.fr"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Partner" numFmtId="0">
+      <sharedItems containsBlank="1">
+        <s v="CEA"/>
+        <m/>
+        <s v="Inria CA"/>
+        <s v="Inria BXSO"/>
+        <s v="Unistra,&#10;Inria Grenoble,&#10;CNRS"/>
+        <s v="Sorbonne U,&#10;Inria PARIS"/>
+        <s v="Inria BXSO,&#10;U Grenoble Alpes,&#10;Sorbonne U"/>
+        <s v="Sorbonne U"/>
+        <s v="Inria Lille"/>
+        <s v="CNRS"/>
+        <s v="CEA,&#10;IPP"/>
+        <s v="Unistra"/>
+        <s v="Inria"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Compte Github" numFmtId="0">
+      <sharedItems containsBlank="1">
+        <m/>
+        <s v="palliez"/>
+        <s v="prudhomm, vincentchabannes"/>
+        <s v="prj-"/>
+        <s v="flofaucher"/>
+        <s v="gouarin"/>
+        <s v="efranck21"/>
+      </sharedItems>
+    </cacheField>
     <cacheField name="Consortium" numFmtId="0">
       <sharedItems containsBlank="1">
         <s v="CEA, IFPEN"/>
@@ -7548,59 +7601,6 @@
         <s v="IP Paris"/>
         <s v="UNISTRA, INRIA"/>
         <s v="DeepMind"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Partner" numFmtId="0">
-      <sharedItems containsBlank="1">
-        <s v="CEA"/>
-        <m/>
-        <s v="Inria CA"/>
-        <s v="Inria BXSO"/>
-        <s v="Unistra,&#10;Inria Grenoble,&#10;CNRS"/>
-        <s v="Sorbonne U,&#10;Inria PARIS"/>
-        <s v="Inria BXSO,&#10;U Grenoble Alpes,&#10;Sorbonne U"/>
-        <s v="Sorbonne U"/>
-        <s v="Inria Lille"/>
-        <s v="CNRS"/>
-        <s v="CEA,&#10;IPP"/>
-        <s v="Unistra"/>
-        <s v="Inria"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Emails" numFmtId="0">
-      <sharedItems containsBlank="1">
-        <s v="lydie.grospellier@cea.fr"/>
-        <s v="Fabienne.Jezequel@lip6.fr"/>
-        <s v="pierre.alliez@inria.fr"/>
-        <s v="gilles.marait@inria.fr"/>
-        <s v="Laurent.Debreu@inria.fr"/>
-        <m/>
-        <s v="christophe.prudhomme@cemosis.fr, vincent.chabannes@cemosis.fr"/>
-        <s v="frederic.hecht@sorbonne-universite.fr ,&#10;pierre-henri.tournier@sorbonne-universite.fr, &#10;pierre.jolivet@sorbonne-universite.fr"/>
-        <s v="stefano.frambati@totalenergies.fr"/>
-        <s v="florian.faucher@inria.fr"/>
-        <s v="pierre@joliv.et"/>
-        <s v="jean-philippe.perlat@cea.fr"/>
-        <s v="olivier.jamond@cea.fr"/>
-        <s v="nouredine.melab@univ-lille.fr"/>
-        <s v="Loic Gouarin"/>
-        <s v="olivier.coulaud@inria.fr"/>
-        <s v="emmanuel.franck@inria.fr"/>
-        <s v="berenger.bramas@inria.fr"/>
-        <s v="pierre.ledac@cea.fr"/>
-        <s v="rudy.chocat@cea.fr, jean-baptiste.blanchard@cea.fr"/>
-        <s v="el-ghazali.talbi@univ-lille.fr"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Compte Github" numFmtId="0">
-      <sharedItems containsBlank="1">
-        <m/>
-        <s v="palliez"/>
-        <s v="prudhomm, vincentchabannes"/>
-        <s v="prj-"/>
-        <s v="flofaucher"/>
-        <s v="gouarin"/>
-        <s v="efranck21"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Benchmarked" numFmtId="0">
@@ -7968,7 +7968,7 @@
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Benchmarks" cacheId="0" dataCaption="" rowGrandTotals="0" compact="0" compactData="0">
-  <location ref="A1:K13" firstHeaderRow="0" firstDataRow="10" firstDataCol="0"/>
+  <location ref="A1:K14" firstHeaderRow="0" firstDataRow="10" firstDataCol="0"/>
   <pivotFields>
     <pivotField name="Software" axis="axisRow" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending" defaultSubtotal="0">
       <items>
@@ -8018,51 +8018,6 @@
         <item x="43"/>
       </items>
     </pivotField>
-    <pivotField name="Consortium" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField name="Partner" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
     <pivotField name="Emails" axis="axisRow" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending" defaultSubtotal="0">
       <items>
         <item x="5"/>
@@ -8088,6 +8043,24 @@
         <item x="8"/>
       </items>
     </pivotField>
+    <pivotField name="Partner" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField name="Compte Github" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
       <items>
         <item x="0"/>
@@ -8097,6 +8070,33 @@
         <item x="4"/>
         <item x="5"/>
         <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField name="Consortium" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -8461,7 +8461,7 @@
   </pivotFields>
   <rowFields>
     <field x="0"/>
-    <field x="3"/>
+    <field x="1"/>
     <field x="5"/>
     <field x="18"/>
     <field x="20"/>
@@ -8527,51 +8527,6 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField name="Consortium" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField name="Partner" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
     <pivotField name="Emails" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
       <items>
         <item x="0"/>
@@ -8598,6 +8553,24 @@
         <item t="default"/>
       </items>
     </pivotField>
+    <pivotField name="Partner" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField name="Compte Github" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
       <items>
         <item x="0"/>
@@ -8607,6 +8580,33 @@
         <item x="4"/>
         <item x="5"/>
         <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField name="Consortium" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -9062,51 +9062,6 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField name="Consortium" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField name="Partner" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
     <pivotField name="Emails" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
       <items>
         <item x="0"/>
@@ -9133,6 +9088,24 @@
         <item t="default"/>
       </items>
     </pivotField>
+    <pivotField name="Partner" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField name="Compte Github" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
       <items>
         <item x="0"/>
@@ -9142,6 +9115,33 @@
         <item x="4"/>
         <item x="5"/>
         <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField name="Consortium" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -9597,51 +9597,6 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField name="Consortium" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField name="Partner" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
     <pivotField name="Emails" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
       <items>
         <item x="0"/>
@@ -9668,6 +9623,24 @@
         <item t="default"/>
       </items>
     </pivotField>
+    <pivotField name="Partner" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField name="Compte Github" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
       <items>
         <item x="0"/>
@@ -9677,6 +9650,33 @@
         <item x="4"/>
         <item x="5"/>
         <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField name="Consortium" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -10132,51 +10132,6 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField name="Consortium" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField name="Partner" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
     <pivotField name="Emails" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
       <items>
         <item x="0"/>
@@ -10203,6 +10158,24 @@
         <item t="default"/>
       </items>
     </pivotField>
+    <pivotField name="Partner" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField name="Compte Github" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
       <items>
         <item x="0"/>
@@ -10212,6 +10185,33 @@
         <item x="4"/>
         <item x="5"/>
         <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField name="Consortium" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -10667,51 +10667,6 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField name="Consortium" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField name="Partner" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
     <pivotField name="Emails" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
       <items>
         <item x="0"/>
@@ -10738,6 +10693,24 @@
         <item t="default"/>
       </items>
     </pivotField>
+    <pivotField name="Partner" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField name="Compte Github" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
       <items>
         <item x="0"/>
@@ -10747,6 +10720,33 @@
         <item x="4"/>
         <item x="5"/>
         <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField name="Consortium" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -11202,51 +11202,6 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField name="Consortium" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField name="Partner" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
     <pivotField name="Emails" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
       <items>
         <item x="0"/>
@@ -11273,6 +11228,24 @@
         <item t="default"/>
       </items>
     </pivotField>
+    <pivotField name="Partner" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField name="Compte Github" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
       <items>
         <item x="0"/>
@@ -11282,6 +11255,33 @@
         <item x="4"/>
         <item x="5"/>
         <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField name="Consortium" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -11732,6 +11732,59 @@
         <item x="39"/>
       </items>
     </pivotField>
+    <pivotField name="Emails" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField name="Partner" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField name="Compte Github" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField name="Consortium" axis="axisRow" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending" defaultSubtotal="0">
       <items>
         <item x="3"/>
@@ -11755,59 +11808,6 @@
         <item x="1"/>
         <item x="20"/>
         <item x="15"/>
-      </items>
-    </pivotField>
-    <pivotField name="Partner" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField name="Emails" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField name="Compte Github" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item t="default"/>
       </items>
     </pivotField>
     <pivotField name="Benchmarked" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
@@ -12181,7 +12181,7 @@
   </pivotFields>
   <rowFields>
     <field x="0"/>
-    <field x="1"/>
+    <field x="4"/>
     <field x="7"/>
   </rowFields>
   <pageFields>
@@ -12238,6 +12238,59 @@
         <item x="39"/>
       </items>
     </pivotField>
+    <pivotField name="Emails" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField name="Partner" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField name="Compte Github" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField name="Consortium" axis="axisRow" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending" defaultSubtotal="0">
       <items>
         <item x="3"/>
@@ -12261,59 +12314,6 @@
         <item x="1"/>
         <item x="20"/>
         <item x="15"/>
-      </items>
-    </pivotField>
-    <pivotField name="Partner" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField name="Emails" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField name="Compte Github" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item t="default"/>
       </items>
     </pivotField>
     <pivotField name="Benchmarked" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
@@ -12687,7 +12687,7 @@
   </pivotFields>
   <rowFields>
     <field x="0"/>
-    <field x="1"/>
+    <field x="4"/>
     <field x="7"/>
   </rowFields>
   <pageFields>
@@ -12744,6 +12744,59 @@
         <item x="39"/>
       </items>
     </pivotField>
+    <pivotField name="Emails" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField name="Partner" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField name="Compte Github" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField name="Consortium" axis="axisRow" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending" defaultSubtotal="0">
       <items>
         <item x="3"/>
@@ -12767,59 +12820,6 @@
         <item x="1"/>
         <item x="20"/>
         <item x="15"/>
-      </items>
-    </pivotField>
-    <pivotField name="Partner" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField name="Emails" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField name="Compte Github" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item t="default"/>
       </items>
     </pivotField>
     <pivotField name="Benchmarked" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
@@ -13193,7 +13193,7 @@
   </pivotFields>
   <rowFields>
     <field x="0"/>
-    <field x="1"/>
+    <field x="4"/>
     <field x="7"/>
   </rowFields>
   <pageFields>
@@ -13254,50 +13254,6 @@
         <item x="43"/>
       </items>
     </pivotField>
-    <pivotField name="Consortium" axis="axisRow" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending" defaultSubtotal="0">
-      <items>
-        <item x="3"/>
-        <item x="13"/>
-        <item x="16"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="17"/>
-        <item x="11"/>
-        <item x="0"/>
-        <item x="6"/>
-        <item x="21"/>
-        <item x="18"/>
-        <item x="7"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="14"/>
-        <item x="19"/>
-        <item x="8"/>
-        <item x="5"/>
-        <item x="12"/>
-        <item x="1"/>
-        <item x="20"/>
-        <item x="15"/>
-      </items>
-    </pivotField>
-    <pivotField name="Partner" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
     <pivotField name="Emails" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
       <items>
         <item x="0"/>
@@ -13324,6 +13280,24 @@
         <item t="default"/>
       </items>
     </pivotField>
+    <pivotField name="Partner" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField name="Compte Github" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
       <items>
         <item x="0"/>
@@ -13334,6 +13308,32 @@
         <item x="5"/>
         <item x="6"/>
         <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField name="Consortium" axis="axisRow" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending" defaultSubtotal="0">
+      <items>
+        <item x="3"/>
+        <item x="13"/>
+        <item x="16"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="17"/>
+        <item x="11"/>
+        <item x="0"/>
+        <item x="6"/>
+        <item x="21"/>
+        <item x="18"/>
+        <item x="7"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="14"/>
+        <item x="19"/>
+        <item x="8"/>
+        <item x="5"/>
+        <item x="12"/>
+        <item x="1"/>
+        <item x="20"/>
+        <item x="15"/>
       </items>
     </pivotField>
     <pivotField name="Benchmarked" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
@@ -13725,7 +13725,7 @@
   </pivotFields>
   <rowFields>
     <field x="0"/>
-    <field x="1"/>
+    <field x="4"/>
     <field x="7"/>
   </rowFields>
   <pageFields>
@@ -13782,6 +13782,59 @@
         <item x="39"/>
       </items>
     </pivotField>
+    <pivotField name="Emails" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField name="Partner" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField name="Compte Github" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField name="Consortium" axis="axisRow" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending" defaultSubtotal="0">
       <items>
         <item x="3"/>
@@ -13805,59 +13858,6 @@
         <item x="1"/>
         <item x="20"/>
         <item x="15"/>
-      </items>
-    </pivotField>
-    <pivotField name="Partner" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField name="Emails" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField name="Compte Github" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item t="default"/>
       </items>
     </pivotField>
     <pivotField name="Benchmarked" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
@@ -14231,7 +14231,7 @@
   </pivotFields>
   <rowFields>
     <field x="0"/>
-    <field x="1"/>
+    <field x="4"/>
     <field x="7"/>
   </rowFields>
   <pageFields>
@@ -14288,6 +14288,59 @@
         <item x="39"/>
       </items>
     </pivotField>
+    <pivotField name="Emails" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField name="Partner" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField name="Compte Github" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField name="Consortium" axis="axisRow" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending" defaultSubtotal="0">
       <items>
         <item x="3"/>
@@ -14311,59 +14364,6 @@
         <item x="1"/>
         <item x="20"/>
         <item x="15"/>
-      </items>
-    </pivotField>
-    <pivotField name="Partner" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField name="Emails" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField name="Compte Github" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item t="default"/>
       </items>
     </pivotField>
     <pivotField name="Benchmarked" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
@@ -14737,7 +14737,7 @@
   </pivotFields>
   <rowFields>
     <field x="0"/>
-    <field x="1"/>
+    <field x="4"/>
     <field x="7"/>
   </rowFields>
   <pageFields>
@@ -14794,6 +14794,59 @@
         <item x="39"/>
       </items>
     </pivotField>
+    <pivotField name="Emails" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField name="Partner" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField name="Compte Github" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField name="Consortium" axis="axisRow" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending" defaultSubtotal="0">
       <items>
         <item x="3"/>
@@ -14817,59 +14870,6 @@
         <item x="1"/>
         <item x="20"/>
         <item x="15"/>
-      </items>
-    </pivotField>
-    <pivotField name="Partner" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField name="Emails" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField name="Compte Github" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item t="default"/>
       </items>
     </pivotField>
     <pivotField name="Benchmarked" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
@@ -15243,7 +15243,7 @@
   </pivotFields>
   <rowFields>
     <field x="0"/>
-    <field x="1"/>
+    <field x="4"/>
     <field x="7"/>
   </rowFields>
   <pageFields>
@@ -15305,51 +15305,6 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField name="Consortium" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField name="Partner" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
     <pivotField name="Emails" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
       <items>
         <item x="0"/>
@@ -15376,6 +15331,24 @@
         <item t="default"/>
       </items>
     </pivotField>
+    <pivotField name="Partner" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField name="Compte Github" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
       <items>
         <item x="0"/>
@@ -15385,6 +15358,33 @@
         <item x="4"/>
         <item x="5"/>
         <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField name="Consortium" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -16214,9 +16214,10 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="21.38"/>
-    <col customWidth="1" min="2" max="2" width="22.13"/>
+    <col customWidth="1" min="2" max="2" width="33.88"/>
     <col customWidth="1" min="3" max="3" width="25.75"/>
-    <col customWidth="1" min="4" max="5" width="33.88"/>
+    <col customWidth="1" min="4" max="4" width="33.88"/>
+    <col customWidth="1" min="5" max="5" width="22.13"/>
     <col customWidth="1" min="6" max="6" width="31.38"/>
     <col customWidth="1" min="7" max="7" width="12.13"/>
     <col customWidth="1" min="8" max="8" width="31.38"/>
@@ -16358,16 +16359,16 @@
       <c r="A2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="5"/>
+      <c r="E2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="5"/>
       <c r="F2" s="5" t="s">
         <v>36</v>
       </c>
@@ -16454,14 +16455,14 @@
       <c r="A3" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>50</v>
       </c>
       <c r="C3" s="10"/>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="5"/>
+      <c r="E3" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="5"/>
       <c r="F3" s="5" t="s">
         <v>52</v>
       </c>
@@ -16538,7 +16539,7 @@
       <c r="A4" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="12" t="s">
         <v>61</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -16547,7 +16548,7 @@
       <c r="D4" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="4" t="s">
         <v>64</v>
       </c>
       <c r="F4" s="12" t="s">
@@ -16632,14 +16633,14 @@
       <c r="A5" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="10"/>
+      <c r="B5" s="5" t="s">
+        <v>75</v>
+      </c>
       <c r="C5" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D5" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="E5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="10"/>
       <c r="F5" s="5" t="s">
         <v>65</v>
       </c>
@@ -16722,14 +16723,14 @@
       <c r="A6" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>86</v>
       </c>
       <c r="C6" s="9"/>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="5"/>
+      <c r="E6" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="4" t="s">
         <v>88</v>
@@ -16806,10 +16807,10 @@
       <c r="A7" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B7" s="9"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="9"/>
       <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
+      <c r="E7" s="9"/>
       <c r="F7" s="17"/>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
@@ -16874,10 +16875,10 @@
       <c r="A8" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B8" s="9"/>
+      <c r="B8" s="5"/>
       <c r="C8" s="9"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+      <c r="E8" s="9"/>
       <c r="F8" s="5"/>
       <c r="G8" s="4"/>
       <c r="H8" s="7" t="s">
@@ -16948,12 +16949,12 @@
       <c r="A9" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>103</v>
-      </c>
+      <c r="B9" s="19"/>
       <c r="C9" s="10"/>
       <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
+      <c r="E9" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="F9" s="19"/>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
@@ -17018,14 +17019,14 @@
       <c r="A10" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>106</v>
-      </c>
+      <c r="B10" s="19"/>
       <c r="C10" s="4" t="s">
         <v>34</v>
       </c>
       <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
+      <c r="E10" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="F10" s="5" t="s">
         <v>52</v>
       </c>
@@ -17102,14 +17103,14 @@
       <c r="A11" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B11" s="10"/>
+      <c r="B11" s="5" t="s">
+        <v>75</v>
+      </c>
       <c r="C11" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D11" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="E11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="10"/>
       <c r="F11" s="12" t="s">
         <v>114</v>
       </c>
@@ -17184,7 +17185,7 @@
       <c r="A12" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="12" t="s">
         <v>119</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -17193,7 +17194,7 @@
       <c r="D12" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="4" t="s">
         <v>122</v>
       </c>
       <c r="F12" s="12" t="s">
@@ -17292,17 +17293,17 @@
       <c r="A13" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>50</v>
+      <c r="B13" s="23" t="s">
+        <v>140</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="E13" s="23" t="s">
         <v>142</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>65</v>
@@ -17396,16 +17397,16 @@
       <c r="A14" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="5" t="s">
         <v>153</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D14" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="E14" s="5"/>
       <c r="F14" s="5" t="s">
         <v>52</v>
       </c>
@@ -17484,17 +17485,17 @@
       <c r="A15" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>61</v>
+      <c r="B15" s="12" t="s">
+        <v>161</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="E15" s="12" t="s">
         <v>162</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="F15" s="12" t="s">
         <v>65</v>
@@ -17586,16 +17587,16 @@
       <c r="A16" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="B16" s="4"/>
+      <c r="B16" s="27" t="s">
+        <v>174</v>
+      </c>
       <c r="C16" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="E16" s="27" t="s">
         <v>142</v>
       </c>
+      <c r="E16" s="4"/>
       <c r="F16" s="27" t="s">
         <v>175</v>
       </c>
@@ -17682,14 +17683,14 @@
       <c r="A17" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>34</v>
-      </c>
+      <c r="B17" s="12"/>
       <c r="C17" s="4" t="s">
         <v>34</v>
       </c>
       <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
+      <c r="E17" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="F17" s="12" t="s">
         <v>52</v>
       </c>
@@ -17768,16 +17769,16 @@
       <c r="A18" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>34</v>
+      <c r="B18" s="5" t="s">
+        <v>190</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="E18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="F18" s="5" t="s">
         <v>175</v>
       </c>
@@ -17870,16 +17871,16 @@
       <c r="A19" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="5" t="s">
         <v>198</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="5"/>
+      <c r="E19" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="E19" s="5"/>
       <c r="F19" s="5" t="s">
         <v>65</v>
       </c>
@@ -17962,14 +17963,14 @@
       <c r="A20" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>204</v>
-      </c>
+      <c r="B20" s="5"/>
       <c r="C20" s="4" t="s">
         <v>34</v>
       </c>
       <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
+      <c r="E20" s="4" t="s">
+        <v>204</v>
+      </c>
       <c r="F20" s="5" t="s">
         <v>52</v>
       </c>
@@ -18050,12 +18051,12 @@
       <c r="A21" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>209</v>
-      </c>
+      <c r="B21" s="5"/>
       <c r="C21" s="9"/>
       <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
+      <c r="E21" s="4" t="s">
+        <v>209</v>
+      </c>
       <c r="F21" s="5"/>
       <c r="G21" s="4" t="s">
         <v>210</v>
@@ -18126,12 +18127,12 @@
       <c r="A22" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="B22" s="4"/>
+      <c r="B22" s="5"/>
       <c r="C22" s="4" t="s">
         <v>34</v>
       </c>
       <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
+      <c r="E22" s="4"/>
       <c r="F22" s="5" t="s">
         <v>52</v>
       </c>
@@ -18214,14 +18215,14 @@
       <c r="A23" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>61</v>
-      </c>
+      <c r="B23" s="19"/>
       <c r="C23" s="4" t="s">
         <v>223</v>
       </c>
       <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
+      <c r="E23" s="4" t="s">
+        <v>64</v>
+      </c>
       <c r="F23" s="5" t="s">
         <v>114</v>
       </c>
@@ -18298,14 +18299,14 @@
       <c r="A24" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="5"/>
+      <c r="C24" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
       <c r="F24" s="5" t="s">
         <v>114</v>
       </c>
@@ -18380,12 +18381,12 @@
       <c r="A25" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>231</v>
-      </c>
+      <c r="B25" s="5"/>
       <c r="C25" s="4"/>
       <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
+      <c r="E25" s="4" t="s">
+        <v>231</v>
+      </c>
       <c r="F25" s="5"/>
       <c r="G25" s="4"/>
       <c r="H25" s="7" t="s">
@@ -18464,14 +18465,14 @@
       <c r="A26" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="5"/>
+      <c r="C26" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" s="5"/>
+      <c r="E26" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
       <c r="F26" s="5" t="s">
         <v>114</v>
       </c>
@@ -18548,16 +18549,16 @@
       <c r="A27" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="12"/>
+      <c r="E27" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="E27" s="12"/>
       <c r="F27" s="12" t="s">
         <v>175</v>
       </c>
@@ -18634,14 +18635,14 @@
       <c r="A28" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="31"/>
+      <c r="C28" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="31"/>
+      <c r="E28" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
       <c r="F28" s="31" t="s">
         <v>114</v>
       </c>
@@ -18722,14 +18723,14 @@
       <c r="A29" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>259</v>
-      </c>
+      <c r="B29" s="17"/>
       <c r="C29" s="4" t="s">
         <v>34</v>
       </c>
       <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
+      <c r="E29" s="4" t="s">
+        <v>259</v>
+      </c>
       <c r="F29" s="5" t="s">
         <v>52</v>
       </c>
@@ -18810,14 +18811,14 @@
       <c r="A30" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="5" t="s">
         <v>50</v>
       </c>
       <c r="C30" s="4"/>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="5"/>
+      <c r="E30" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E30" s="5"/>
       <c r="F30" s="5" t="s">
         <v>52</v>
       </c>
@@ -18894,10 +18895,10 @@
       <c r="A31" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="B31" s="9"/>
+      <c r="B31" s="17"/>
       <c r="C31" s="9"/>
       <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
+      <c r="E31" s="9"/>
       <c r="F31" s="17"/>
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
@@ -18964,12 +18965,12 @@
       <c r="A32" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="B32" s="4"/>
+      <c r="B32" s="5"/>
       <c r="C32" s="4" t="s">
         <v>273</v>
       </c>
       <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
+      <c r="E32" s="4"/>
       <c r="F32" s="27" t="s">
         <v>114</v>
       </c>
@@ -19050,12 +19051,12 @@
       <c r="A33" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>280</v>
-      </c>
+      <c r="B33" s="19"/>
       <c r="C33" s="10"/>
       <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
+      <c r="E33" s="4" t="s">
+        <v>280</v>
+      </c>
       <c r="F33" s="19"/>
       <c r="G33" s="10"/>
       <c r="H33" s="10"/>
@@ -19116,7 +19117,7 @@
       <c r="A34" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="12" t="s">
         <v>282</v>
       </c>
       <c r="C34" s="4" t="s">
@@ -19125,7 +19126,7 @@
       <c r="D34" s="12" t="s">
         <v>284</v>
       </c>
-      <c r="E34" s="12" t="s">
+      <c r="E34" s="4" t="s">
         <v>285</v>
       </c>
       <c r="F34" s="12" t="s">
@@ -19212,14 +19213,14 @@
       <c r="A35" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="B35" s="10"/>
+      <c r="B35" s="5" t="s">
+        <v>293</v>
+      </c>
       <c r="C35" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="E35" s="5"/>
+        <v>76</v>
+      </c>
+      <c r="D35" s="5"/>
+      <c r="E35" s="10"/>
       <c r="F35" s="5" t="s">
         <v>52</v>
       </c>
@@ -19298,10 +19299,10 @@
       <c r="A36" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="B36" s="9"/>
+      <c r="B36" s="17"/>
       <c r="C36" s="9"/>
       <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
+      <c r="E36" s="9"/>
       <c r="F36" s="17"/>
       <c r="G36" s="4" t="s">
         <v>299</v>
@@ -19368,7 +19369,7 @@
       <c r="A37" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="12" t="s">
         <v>301</v>
       </c>
       <c r="C37" s="4" t="s">
@@ -19377,7 +19378,7 @@
       <c r="D37" s="12" t="s">
         <v>303</v>
       </c>
-      <c r="E37" s="12" t="s">
+      <c r="E37" s="4" t="s">
         <v>304</v>
       </c>
       <c r="F37" s="12" t="s">
@@ -19458,12 +19459,12 @@
       <c r="A38" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="B38" s="10"/>
+      <c r="B38" s="19"/>
       <c r="C38" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
+      <c r="E38" s="10"/>
       <c r="F38" s="5" t="s">
         <v>114</v>
       </c>
@@ -19530,16 +19531,16 @@
       <c r="A39" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>61</v>
+      <c r="B39" s="5" t="s">
+        <v>311</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="E39" s="5"/>
+        <v>64</v>
+      </c>
+      <c r="D39" s="5"/>
+      <c r="E39" s="4" t="s">
+        <v>64</v>
+      </c>
       <c r="F39" s="5"/>
       <c r="G39" s="4"/>
       <c r="H39" s="7" t="s">
@@ -19614,12 +19615,12 @@
       <c r="A40" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="B40" s="10"/>
+      <c r="B40" s="19"/>
       <c r="C40" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
+      <c r="E40" s="10"/>
       <c r="F40" s="5" t="s">
         <v>114</v>
       </c>
@@ -19684,10 +19685,10 @@
       <c r="A41" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="B41" s="4"/>
+      <c r="B41" s="17"/>
       <c r="C41" s="9"/>
       <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
+      <c r="E41" s="4"/>
       <c r="F41" s="17"/>
       <c r="G41" s="4" t="s">
         <v>316</v>
@@ -19754,16 +19755,16 @@
       <c r="A42" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>34</v>
+      <c r="B42" s="5" t="s">
+        <v>319</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D42" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="E42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="F42" s="5" t="s">
         <v>320</v>
       </c>
@@ -19848,18 +19849,18 @@
       <c r="A43" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>34</v>
+      <c r="B43" s="5" t="s">
+        <v>326</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D43" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="E43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="F43" s="5" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="G43" s="4"/>
       <c r="H43" s="7" t="s">
@@ -19940,12 +19941,12 @@
       <c r="A44" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>334</v>
-      </c>
+      <c r="B44" s="5"/>
       <c r="C44" s="9"/>
       <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
+      <c r="E44" s="4" t="s">
+        <v>334</v>
+      </c>
       <c r="F44" s="5"/>
       <c r="G44" s="4"/>
       <c r="H44" s="7" t="s">
@@ -20018,16 +20019,16 @@
       <c r="A45" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>243</v>
+      <c r="B45" s="12" t="s">
+        <v>338</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="D45" s="12" t="s">
-        <v>338</v>
-      </c>
-      <c r="E45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="4" t="s">
+        <v>245</v>
+      </c>
       <c r="F45" s="12" t="s">
         <v>339</v>
       </c>
@@ -42984,10 +42985,7 @@
     <row r="11"/>
     <row r="12"/>
     <row r="13"/>
-    <row r="14">
-      <c r="B14" s="36"/>
-      <c r="D14" s="37"/>
-    </row>
+    <row r="14"/>
     <row r="15">
       <c r="B15" s="36"/>
       <c r="D15" s="37"/>
@@ -47741,7 +47739,7 @@
     </row>
     <row r="3">
       <c r="A3" s="41" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B3" s="42" t="s">
         <v>54</v>
@@ -48273,7 +48271,7 @@
     </row>
     <row r="11">
       <c r="A11" s="41" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B11" s="41"/>
       <c r="C11" s="45" t="s">
@@ -66145,7 +66143,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="203" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C1" s="203" t="s">
         <v>2</v>

--- a/exama-software.xlsx
+++ b/exama-software.xlsx
@@ -1300,7 +1300,7 @@
     <t>Uranie</t>
   </si>
   <si>
-    <t>rudy.chocat@cea.fr, jean-baptiste.blanchard@cea.fr</t>
+    <t>rudy.chocat@cea.fr, jean-baptiste.blanchard@cea.fr,clement.gauchy@cea.fr</t>
   </si>
   <si>
     <t>https://sourceforge.net/projects/uranie/</t>
@@ -6599,7 +6599,7 @@
         <s v="emmanuel.franck@inria.fr"/>
         <s v="berenger.bramas@inria.fr"/>
         <s v="pierre.ledac@cea.fr"/>
-        <s v="rudy.chocat@cea.fr, jean-baptiste.blanchard@cea.fr"/>
+        <s v="rudy.chocat@cea.fr, jean-baptiste.blanchard@cea.fr,clement.gauchy@cea.fr"/>
         <s v="el-ghazali.talbi@univ-lille.fr"/>
       </sharedItems>
     </cacheField>
@@ -7545,7 +7545,7 @@
         <s v="emmanuel.franck@inria.fr"/>
         <s v="berenger.bramas@inria.fr"/>
         <s v="pierre.ledac@cea.fr"/>
-        <s v="rudy.chocat@cea.fr, jean-baptiste.blanchard@cea.fr"/>
+        <s v="rudy.chocat@cea.fr, jean-baptiste.blanchard@cea.fr,clement.gauchy@cea.fr"/>
         <s v="el-ghazali.talbi@univ-lille.fr"/>
       </sharedItems>
     </cacheField>
